--- a/plot/4_winsT_20_fcType_4.xlsx
+++ b/plot/4_winsT_20_fcType_4.xlsx
@@ -540,10 +540,10 @@
         <v>0.08791619269600723</v>
       </c>
       <c r="L3">
-        <v>0.5299265476568694</v>
+        <v>0.5299265476568695</v>
       </c>
       <c r="M3">
-        <v>0.0644900465688342</v>
+        <v>0.06449004656883429</v>
       </c>
       <c r="N3">
         <v>0.5</v>
@@ -584,7 +584,7 @@
         <v>0.009497393531512585</v>
       </c>
       <c r="L4">
-        <v>-0.01813321517266636</v>
+        <v>-0.01813321517266665</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>0.1257902703119376</v>
       </c>
       <c r="L5">
-        <v>0.3988562354385913</v>
+        <v>0.3988562354385906</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>1.086568579246479</v>
       </c>
       <c r="M6">
-        <v>0.4089679092352682</v>
+        <v>0.4089679092352684</v>
       </c>
       <c r="N6">
         <v>0.5</v>
@@ -716,7 +716,7 @@
         <v>0.4547423550995272</v>
       </c>
       <c r="L7">
-        <v>1.249214469938095</v>
+        <v>1.249214469938094</v>
       </c>
       <c r="M7">
         <v>0.5875994944073308</v>
@@ -807,7 +807,7 @@
         <v>1.761519053968521</v>
       </c>
       <c r="M9">
-        <v>0.628485513573395</v>
+        <v>0.6284855135733952</v>
       </c>
       <c r="N9">
         <v>0.5</v>
@@ -848,10 +848,10 @@
         <v>0.4581474011360821</v>
       </c>
       <c r="L10">
-        <v>2.524926786231243</v>
+        <v>2.524926786231244</v>
       </c>
       <c r="M10">
-        <v>0.9805834017322915</v>
+        <v>0.9805834017322916</v>
       </c>
       <c r="N10">
         <v>0.5</v>
@@ -895,7 +895,7 @@
         <v>2.066569711980118</v>
       </c>
       <c r="M11">
-        <v>0.7691805680353285</v>
+        <v>0.7691805680353286</v>
       </c>
       <c r="N11">
         <v>0.5</v>
@@ -936,10 +936,10 @@
         <v>0.6424298098229904</v>
       </c>
       <c r="L12">
-        <v>1.696432045697714</v>
+        <v>1.696432045697715</v>
       </c>
       <c r="M12">
-        <v>0.5984661711037996</v>
+        <v>0.5984661711038003</v>
       </c>
       <c r="N12">
         <v>0.5</v>
@@ -983,7 +983,7 @@
         <v>1.724655558250103</v>
       </c>
       <c r="M13">
-        <v>0.6114833816272873</v>
+        <v>0.6114833816272875</v>
       </c>
       <c r="N13">
         <v>0.5</v>
@@ -1027,7 +1027,7 @@
         <v>1.554478291026179</v>
       </c>
       <c r="M14">
-        <v>0.5329944511777659</v>
+        <v>0.5329944511777662</v>
       </c>
       <c r="N14">
         <v>0.5</v>
@@ -1068,10 +1068,10 @@
         <v>0.6667306780174727</v>
       </c>
       <c r="L15">
-        <v>1.419666371311833</v>
+        <v>1.419666371311834</v>
       </c>
       <c r="M15">
-        <v>0.2249966499970847</v>
+        <v>0.2249966499970849</v>
       </c>
       <c r="N15">
         <v>0.5</v>
@@ -1200,10 +1200,10 @@
         <v>0.7255613779313975</v>
       </c>
       <c r="L18">
-        <v>1.547342414630422</v>
+        <v>1.547342414630421</v>
       </c>
       <c r="M18">
-        <v>0.2850518844207421</v>
+        <v>0.2850518844207414</v>
       </c>
       <c r="N18">
         <v>0.5</v>
@@ -1247,7 +1247,7 @@
         <v>1.548318504966944</v>
       </c>
       <c r="M19">
-        <v>0.2857657398863205</v>
+        <v>0.2857657398863203</v>
       </c>
       <c r="N19">
         <v>0.5</v>
@@ -1291,7 +1291,7 @@
         <v>1.780008451432027</v>
       </c>
       <c r="M20">
-        <v>0.6847486669777493</v>
+        <v>0.6847486669777492</v>
       </c>
       <c r="N20">
         <v>0.5</v>
@@ -1423,7 +1423,7 @@
         <v>2.033306887019874</v>
       </c>
       <c r="M23">
-        <v>0.6983538874620757</v>
+        <v>0.6983538874620749</v>
       </c>
       <c r="N23">
         <v>0.5</v>
@@ -1464,7 +1464,7 @@
         <v>0.3382994832965445</v>
       </c>
       <c r="L24">
-        <v>2.443216783821413</v>
+        <v>2.443216783821412</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1508,10 +1508,10 @@
         <v>0.2914988828405575</v>
       </c>
       <c r="L25">
-        <v>1.876325987474923</v>
+        <v>1.876325987474924</v>
       </c>
       <c r="M25">
-        <v>0.5590594903318404</v>
+        <v>0.5590594903318411</v>
       </c>
       <c r="N25">
         <v>0.5</v>
@@ -1599,7 +1599,7 @@
         <v>1.29150686630369</v>
       </c>
       <c r="M27">
-        <v>0.04591645806972736</v>
+        <v>0.04591645806972756</v>
       </c>
       <c r="N27">
         <v>0.5</v>
@@ -1643,7 +1643,7 @@
         <v>1.303457674991333</v>
       </c>
       <c r="M28">
-        <v>0.05581658110262834</v>
+        <v>0.05581658110262817</v>
       </c>
       <c r="N28">
         <v>0.5</v>
@@ -1684,10 +1684,10 @@
         <v>0.2121661438805857</v>
       </c>
       <c r="L29">
-        <v>1.458309934980977</v>
+        <v>1.458309934980976</v>
       </c>
       <c r="M29">
-        <v>0.1840971406772604</v>
+        <v>0.1840971406772599</v>
       </c>
       <c r="N29">
         <v>0.5</v>
@@ -1728,7 +1728,7 @@
         <v>0.3155220985569672</v>
       </c>
       <c r="L30">
-        <v>1.04774038585319</v>
+        <v>1.047740385853191</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1772,10 +1772,10 @@
         <v>0.1946235299466783</v>
       </c>
       <c r="L31">
-        <v>1.098197071355375</v>
+        <v>1.098197071355374</v>
       </c>
       <c r="M31">
-        <v>0.03615731916042995</v>
+        <v>0.0361573191604295</v>
       </c>
       <c r="N31">
         <v>0.5</v>
@@ -1816,10 +1816,10 @@
         <v>0.143136344662632</v>
       </c>
       <c r="L32">
-        <v>1.383537262537998</v>
+        <v>1.383537262537997</v>
       </c>
       <c r="M32">
-        <v>0.2406324300244125</v>
+        <v>0.240632430024412</v>
       </c>
       <c r="N32">
         <v>0.5</v>
@@ -1863,7 +1863,7 @@
         <v>1.525608940001776</v>
       </c>
       <c r="M33">
-        <v>0.3424411583344228</v>
+        <v>0.3424411583344226</v>
       </c>
       <c r="N33">
         <v>0.5</v>
@@ -1948,7 +1948,7 @@
         <v>0.1335738125485532</v>
       </c>
       <c r="L35">
-        <v>2.269384285641271</v>
+        <v>2.269384285641272</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -1992,7 +1992,7 @@
         <v>0.09624147436735675</v>
       </c>
       <c r="L36">
-        <v>3.642166520232415</v>
+        <v>3.642166520232416</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>1.09772293654042</v>
       </c>
       <c r="M37">
-        <v>0.01926535892654697</v>
+        <v>0.01926535892654671</v>
       </c>
       <c r="N37">
         <v>0.5</v>
@@ -2083,7 +2083,7 @@
         <v>1.830223365844467</v>
       </c>
       <c r="M38">
-        <v>0.3016015640693902</v>
+        <v>0.30160156406939</v>
       </c>
       <c r="N38">
         <v>0.5</v>
@@ -2124,7 +2124,7 @@
         <v>-0.1883198388628537</v>
       </c>
       <c r="L39">
-        <v>0.958029945426267</v>
+        <v>0.9580299454262668</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>1.105955260602988</v>
       </c>
       <c r="M40">
-        <v>0.05511094948192221</v>
+        <v>0.05511094948192223</v>
       </c>
       <c r="N40">
         <v>0.5</v>
@@ -2212,10 +2212,10 @@
         <v>-0.2376420767637163</v>
       </c>
       <c r="L41">
-        <v>1.090195415946023</v>
+        <v>1.090195415946022</v>
       </c>
       <c r="M41">
-        <v>0.04923947304331961</v>
+        <v>0.04923947304331947</v>
       </c>
       <c r="N41">
         <v>0.5</v>
@@ -2256,10 +2256,10 @@
         <v>-0.2373129791426267</v>
       </c>
       <c r="L42">
-        <v>1.007682502126594</v>
+        <v>1.007682502126593</v>
       </c>
       <c r="M42">
-        <v>0.01849852096438595</v>
+        <v>0.01849852096438582</v>
       </c>
       <c r="N42">
         <v>0.5</v>
@@ -2300,7 +2300,7 @@
         <v>-0.07911080081172615</v>
       </c>
       <c r="L43">
-        <v>1.358289770291576</v>
+        <v>1.358289770291575</v>
       </c>
       <c r="M43">
         <v>0.1491205136959977</v>
@@ -2347,7 +2347,7 @@
         <v>1.469070679158367</v>
       </c>
       <c r="M44">
-        <v>0.1903929697649638</v>
+        <v>0.1903929697649636</v>
       </c>
       <c r="N44">
         <v>0.5</v>
@@ -2435,7 +2435,7 @@
         <v>1.69425454164655</v>
       </c>
       <c r="M46">
-        <v>0.8441070283094751</v>
+        <v>0.8441070283094749</v>
       </c>
       <c r="N46">
         <v>0.5</v>
@@ -2479,7 +2479,7 @@
         <v>1.642459076064488</v>
       </c>
       <c r="M47">
-        <v>0.7847217310009642</v>
+        <v>0.7847217310009643</v>
       </c>
       <c r="N47">
         <v>0.5</v>
@@ -2523,7 +2523,7 @@
         <v>1.444879826614097</v>
       </c>
       <c r="M48">
-        <v>0.6612790223082435</v>
+        <v>0.6612790223082438</v>
       </c>
       <c r="N48">
         <v>0.5</v>
@@ -2567,7 +2567,7 @@
         <v>1.439198117814207</v>
       </c>
       <c r="M49">
-        <v>0.6285074119670297</v>
+        <v>0.6285074119670309</v>
       </c>
       <c r="N49">
         <v>0.5</v>
@@ -2611,7 +2611,7 @@
         <v>1.2360183850655</v>
       </c>
       <c r="M50">
-        <v>0.3325738157041124</v>
+        <v>0.3325738157041123</v>
       </c>
       <c r="N50">
         <v>0.5</v>
@@ -2655,7 +2655,7 @@
         <v>1.070936043971235</v>
       </c>
       <c r="M51">
-        <v>0.09212950455842525</v>
+        <v>0.09212950455842554</v>
       </c>
       <c r="N51">
         <v>0.5</v>
@@ -2740,7 +2740,7 @@
         <v>-0.1017054170915067</v>
       </c>
       <c r="L53">
-        <v>0.7744270987990614</v>
+        <v>0.7744270987990615</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>-0.1651545238312635</v>
       </c>
       <c r="L54">
-        <v>0.2333870985135145</v>
+        <v>0.2333870985135149</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>-0.1629104599752855</v>
       </c>
       <c r="L55">
-        <v>-0.2051718331124792</v>
+        <v>-0.2051718331124794</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         <v>-0.2029976581601606</v>
       </c>
       <c r="L56">
-        <v>-1.339822385719633</v>
+        <v>-1.339822385719634</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -2916,10 +2916,10 @@
         <v>0.7732356565080222</v>
       </c>
       <c r="L57">
-        <v>0.8577165786686523</v>
+        <v>0.857716578668653</v>
       </c>
       <c r="M57">
-        <v>0.5153390240599971</v>
+        <v>0.5153390240599977</v>
       </c>
       <c r="N57">
         <v>0.5</v>
@@ -3089,10 +3089,10 @@
         <v>0.01617970084371428</v>
       </c>
       <c r="K61">
-        <v>0.4544325564923122</v>
+        <v>0.4544325564923121</v>
       </c>
       <c r="L61">
-        <v>2.863877788880179</v>
+        <v>2.86387778888018</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>0.4740386073622809</v>
       </c>
       <c r="L62">
-        <v>3.252578986398794</v>
+        <v>3.252578986398795</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3183,7 +3183,7 @@
         <v>3.093282607161523</v>
       </c>
       <c r="M63">
-        <v>0.94723873633986</v>
+        <v>0.9472387363398598</v>
       </c>
       <c r="N63">
         <v>0.5</v>
@@ -3227,7 +3227,7 @@
         <v>2.94917378094086</v>
       </c>
       <c r="M64">
-        <v>0.8733099636627967</v>
+        <v>0.8733099636627965</v>
       </c>
       <c r="N64">
         <v>0.5</v>
@@ -3271,7 +3271,7 @@
         <v>3.149366078235223</v>
       </c>
       <c r="M65">
-        <v>0.956902364064666</v>
+        <v>0.9569023640646658</v>
       </c>
       <c r="N65">
         <v>0.5</v>
@@ -3315,7 +3315,7 @@
         <v>2.960448717243449</v>
       </c>
       <c r="M66">
-        <v>0.8780179319645226</v>
+        <v>0.8780179319645224</v>
       </c>
       <c r="N66">
         <v>0.5</v>
@@ -3359,7 +3359,7 @@
         <v>2.896155798030692</v>
       </c>
       <c r="M67">
-        <v>0.6904097965161941</v>
+        <v>0.6904097965161937</v>
       </c>
       <c r="N67">
         <v>0.5</v>
@@ -3444,10 +3444,10 @@
         <v>0.4658715103012885</v>
       </c>
       <c r="L69">
-        <v>3.114794212030873</v>
+        <v>3.114794212030872</v>
       </c>
       <c r="M69">
-        <v>0.7194971908589206</v>
+        <v>0.7194971908589198</v>
       </c>
       <c r="N69">
         <v>0.5</v>
@@ -3488,7 +3488,7 @@
         <v>0.5232957796029026</v>
       </c>
       <c r="L70">
-        <v>4.066233298825645</v>
+        <v>4.066233298825644</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>3.720171063116019</v>
       </c>
       <c r="M71">
-        <v>0.7042399025068762</v>
+        <v>0.7042399025068766</v>
       </c>
       <c r="N71">
         <v>0.5</v>
@@ -3576,10 +3576,10 @@
         <v>0.5850620807953778</v>
       </c>
       <c r="L72">
-        <v>3.241205265471416</v>
+        <v>3.241205265471417</v>
       </c>
       <c r="M72">
-        <v>0.2948945409225429</v>
+        <v>0.2948945409225439</v>
       </c>
       <c r="N72">
         <v>0.5</v>
@@ -3623,7 +3623,7 @@
         <v>2.927656850693024</v>
       </c>
       <c r="M73">
-        <v>0.02692219330850341</v>
+        <v>0.02692219330850306</v>
       </c>
       <c r="N73">
         <v>0.5</v>
@@ -3664,7 +3664,7 @@
         <v>0.1016335347585102</v>
       </c>
       <c r="L74">
-        <v>2.429291465418954</v>
+        <v>2.429291465418953</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0.255252757471691</v>
       </c>
       <c r="L75">
-        <v>3.064587358747459</v>
+        <v>3.064587358747458</v>
       </c>
       <c r="M75">
-        <v>0.3880992472447059</v>
+        <v>0.3880992472447057</v>
       </c>
       <c r="N75">
         <v>0.5</v>
@@ -3755,7 +3755,7 @@
         <v>3.081012786462141</v>
       </c>
       <c r="M76">
-        <v>0.3981334631096025</v>
+        <v>0.3981334631096026</v>
       </c>
       <c r="N76">
         <v>0.5</v>
@@ -3840,10 +3840,10 @@
         <v>0.311716820052653</v>
       </c>
       <c r="L78">
-        <v>3.488449175745686</v>
+        <v>3.488449175745687</v>
       </c>
       <c r="M78">
-        <v>0.6272859011204699</v>
+        <v>0.6272859011204702</v>
       </c>
       <c r="N78">
         <v>0.5</v>
@@ -3887,7 +3887,7 @@
         <v>2.920793130194455</v>
       </c>
       <c r="M79">
-        <v>0.2910917436420329</v>
+        <v>0.2910917436420331</v>
       </c>
       <c r="N79">
         <v>0.5</v>
@@ -3975,7 +3975,7 @@
         <v>2.863103883900918</v>
       </c>
       <c r="M81">
-        <v>0.2569253012950859</v>
+        <v>0.2569253012950864</v>
       </c>
       <c r="N81">
         <v>0.5</v>
@@ -4016,10 +4016,10 @@
         <v>0.5068312106884905</v>
       </c>
       <c r="L82">
-        <v>2.73165310561635</v>
+        <v>2.731653105616351</v>
       </c>
       <c r="M82">
-        <v>0.1790736092333007</v>
+        <v>0.1790736092333017</v>
       </c>
       <c r="N82">
         <v>0.5</v>
@@ -4060,10 +4060,10 @@
         <v>0.5023093799964046</v>
       </c>
       <c r="L83">
-        <v>2.764884023142571</v>
+        <v>2.764884023142572</v>
       </c>
       <c r="M83">
-        <v>0.198754612205998</v>
+        <v>0.1987546122059988</v>
       </c>
       <c r="N83">
         <v>0.5</v>
@@ -4107,7 +4107,7 @@
         <v>2.767332269641287</v>
       </c>
       <c r="M84">
-        <v>0.02574040329904756</v>
+        <v>0.02574040329904662</v>
       </c>
       <c r="N84">
         <v>0.5</v>
@@ -4148,10 +4148,10 @@
         <v>0.4830048096970982</v>
       </c>
       <c r="L85">
-        <v>2.769369773875739</v>
+        <v>2.769369773875741</v>
       </c>
       <c r="M85">
-        <v>0.02721034190752134</v>
+        <v>0.02721034190752137</v>
       </c>
       <c r="N85">
         <v>0.5</v>
@@ -4195,7 +4195,7 @@
         <v>2.767562717939928</v>
       </c>
       <c r="M86">
-        <v>0.02590665809533298</v>
+        <v>0.02590665809533236</v>
       </c>
       <c r="N86">
         <v>0.5</v>
@@ -4236,7 +4236,7 @@
         <v>0.3652670998000951</v>
       </c>
       <c r="L87">
-        <v>2.571251919094037</v>
+        <v>2.571251919094038</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>2.670405828451003</v>
       </c>
       <c r="M88">
-        <v>0.2836687240534873</v>
+        <v>0.2836687240534833</v>
       </c>
       <c r="N88">
         <v>0.5</v>
@@ -4324,10 +4324,10 @@
         <v>0.3941474261992295</v>
       </c>
       <c r="L89">
-        <v>2.747356891320343</v>
+        <v>2.747356891320344</v>
       </c>
       <c r="M89">
-        <v>0.550251300565745</v>
+        <v>0.5502513005657453</v>
       </c>
       <c r="N89">
         <v>0.5</v>
@@ -4368,10 +4368,10 @@
         <v>0.400862423056769</v>
       </c>
       <c r="L90">
-        <v>2.720290382408988</v>
+        <v>2.72029038240899</v>
       </c>
       <c r="M90">
-        <v>0.5106645878281832</v>
+        <v>0.5106645878281864</v>
       </c>
       <c r="N90">
         <v>0.5</v>
@@ -4456,7 +4456,7 @@
         <v>0.389552776435118</v>
       </c>
       <c r="L92">
-        <v>3.498420481720161</v>
+        <v>3.498420481720162</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -4547,7 +4547,7 @@
         <v>3.574410239565443</v>
       </c>
       <c r="M94">
-        <v>0.5798171007264787</v>
+        <v>0.5798171007264784</v>
       </c>
       <c r="N94">
         <v>0.5</v>
@@ -4632,7 +4632,7 @@
         <v>0.7251403681325729</v>
       </c>
       <c r="L96">
-        <v>0.6379330380807641</v>
+        <v>0.6379330380807642</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -4676,7 +4676,7 @@
         <v>0.7334025407373744</v>
       </c>
       <c r="L97">
-        <v>0.5398667254914828</v>
+        <v>0.5398667254914825</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>-0.1684699866797966</v>
       </c>
       <c r="L99">
-        <v>0.0831243698433404</v>
+        <v>0.08312436984334</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>-0.4944093869617243</v>
       </c>
       <c r="L104">
-        <v>-0.37079169562658</v>
+        <v>-0.3707916956265799</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>-0.4546355314685541</v>
       </c>
       <c r="L106">
-        <v>-0.02461235657661174</v>
+        <v>-0.02461235657661183</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -5116,10 +5116,10 @@
         <v>-0.4028289779635455</v>
       </c>
       <c r="L107">
-        <v>0.2894841020517362</v>
+        <v>0.2894841020517363</v>
       </c>
       <c r="M107">
-        <v>0.1318983640655974</v>
+        <v>0.1318983640655977</v>
       </c>
       <c r="N107">
         <v>0.5</v>
@@ -5204,7 +5204,7 @@
         <v>-0.4148641797415792</v>
       </c>
       <c r="L109">
-        <v>0.1227428964759222</v>
+        <v>0.1227428964759223</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>-0.4152435665702379</v>
       </c>
       <c r="L110">
-        <v>0.08638471961869554</v>
+        <v>0.08638471961869551</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>-0.06979571137719526</v>
       </c>
       <c r="M112">
-        <v>0.04308117961508824</v>
+        <v>0.04308117961508818</v>
       </c>
       <c r="N112">
         <v>0.5</v>
@@ -5424,7 +5424,7 @@
         <v>-0.4712731358449977</v>
       </c>
       <c r="L114">
-        <v>-0.5201691446469197</v>
+        <v>-0.5201691446469199</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -5556,7 +5556,7 @@
         <v>-0.609489281901232</v>
       </c>
       <c r="L117">
-        <v>-3.095382042470266</v>
+        <v>-3.095382042470264</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -5600,10 +5600,10 @@
         <v>-0.4967386760996021</v>
       </c>
       <c r="L118">
-        <v>-2.704961732615845</v>
+        <v>-2.704961732615846</v>
       </c>
       <c r="M118">
-        <v>0.8709604462969095</v>
+        <v>0.8709604462969102</v>
       </c>
       <c r="N118">
         <v>0.5</v>
@@ -5647,7 +5647,7 @@
         <v>-2.36752995813951</v>
       </c>
       <c r="M119">
-        <v>0.7594343691829804</v>
+        <v>0.759434369182981</v>
       </c>
       <c r="N119">
         <v>0.5</v>
@@ -5688,10 +5688,10 @@
         <v>-0.4870688056296775</v>
       </c>
       <c r="L120">
-        <v>-1.318995343190487</v>
+        <v>-1.318995343190489</v>
       </c>
       <c r="M120">
-        <v>0.4128785283618023</v>
+        <v>0.4128785283618032</v>
       </c>
       <c r="N120">
         <v>0.5</v>
@@ -5732,10 +5732,10 @@
         <v>-0.3016267072653739</v>
       </c>
       <c r="L121">
-        <v>-0.5773548636006199</v>
+        <v>-0.5773548636006202</v>
       </c>
       <c r="M121">
-        <v>0.1677556336791275</v>
+        <v>0.1677556336791277</v>
       </c>
       <c r="N121">
         <v>0.5</v>
@@ -5776,7 +5776,7 @@
         <v>-0.2944203723958104</v>
       </c>
       <c r="L122">
-        <v>-0.2578140954120091</v>
+        <v>-0.2578140954120087</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>-0.3312255229035629</v>
       </c>
       <c r="L123">
-        <v>-0.317219883373814</v>
+        <v>-0.3172198833738137</v>
       </c>
       <c r="M123">
-        <v>0.0209354591925778</v>
+        <v>0.02093545919257783</v>
       </c>
       <c r="N123">
         <v>0.5</v>
@@ -5864,10 +5864,10 @@
         <v>-0.5840615742804829</v>
       </c>
       <c r="L124">
-        <v>-0.3605154125390103</v>
+        <v>-0.3605154125390093</v>
       </c>
       <c r="M124">
-        <v>0.03619343009335619</v>
+        <v>0.03619343009335595</v>
       </c>
       <c r="N124">
         <v>0.5</v>
@@ -5908,10 +5908,10 @@
         <v>-0.4069126814924166</v>
       </c>
       <c r="L125">
-        <v>-0.7666759389433999</v>
+        <v>-0.7666759389433994</v>
       </c>
       <c r="M125">
-        <v>0.1793302761468441</v>
+        <v>0.1793302761468442</v>
       </c>
       <c r="N125">
         <v>0.5</v>
@@ -5952,10 +5952,10 @@
         <v>-0.3860593318314423</v>
       </c>
       <c r="L126">
-        <v>-0.5875856498157244</v>
+        <v>-0.5875856498157243</v>
       </c>
       <c r="M126">
-        <v>0.1162162670837869</v>
+        <v>0.116216267083787</v>
       </c>
       <c r="N126">
         <v>0.5</v>
@@ -5996,10 +5996,10 @@
         <v>-0.4361758753897363</v>
       </c>
       <c r="L127">
-        <v>-0.7319770048976324</v>
+        <v>-0.7319770048976341</v>
       </c>
       <c r="M127">
-        <v>0.1937614642765944</v>
+        <v>0.1937614642765951</v>
       </c>
       <c r="N127">
         <v>0.5</v>
@@ -6040,10 +6040,10 @@
         <v>-0.4901063948759336</v>
       </c>
       <c r="L128">
-        <v>-0.8942153530465309</v>
+        <v>-0.8942153530465307</v>
       </c>
       <c r="M128">
-        <v>0.3016525916488888</v>
+        <v>0.3016525916488887</v>
       </c>
       <c r="N128">
         <v>0.5</v>
@@ -6084,10 +6084,10 @@
         <v>-0.4855608123888279</v>
       </c>
       <c r="L129">
-        <v>-0.882740090447785</v>
+        <v>-0.8827400904477851</v>
       </c>
       <c r="M129">
-        <v>0.5888965681819411</v>
+        <v>0.5888965681819404</v>
       </c>
       <c r="N129">
         <v>0.5</v>
@@ -6128,7 +6128,7 @@
         <v>-0.4859205439266837</v>
       </c>
       <c r="L130">
-        <v>-0.9236885044203149</v>
+        <v>-0.9236885044203152</v>
       </c>
       <c r="M130">
         <v>1</v>
@@ -6216,7 +6216,7 @@
         <v>-0.5409902245996566</v>
       </c>
       <c r="L132">
-        <v>-1.348713592967997</v>
+        <v>-1.348713592967998</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -6260,10 +6260,10 @@
         <v>-0.5263017707951165</v>
       </c>
       <c r="L133">
-        <v>-1.309159213408149</v>
+        <v>-1.30915921340815</v>
       </c>
       <c r="M133">
-        <v>0.9599732317431745</v>
+        <v>0.9599732317431742</v>
       </c>
       <c r="N133">
         <v>0.5</v>
@@ -6304,7 +6304,7 @@
         <v>-0.5248986842401521</v>
       </c>
       <c r="L134">
-        <v>-1.335251774870535</v>
+        <v>-1.335251774870536</v>
       </c>
       <c r="M134">
         <v>0.9823133308682522</v>
@@ -6392,10 +6392,10 @@
         <v>-0.1217009524528873</v>
       </c>
       <c r="L136">
-        <v>-1.134449282147151</v>
+        <v>-1.13444928214715</v>
       </c>
       <c r="M136">
-        <v>0.6494874653522269</v>
+        <v>0.6494874653522255</v>
       </c>
       <c r="N136">
         <v>0.5</v>
@@ -6436,7 +6436,7 @@
         <v>-0.1390721912806849</v>
       </c>
       <c r="L137">
-        <v>-0.7440617758888352</v>
+        <v>-0.7440617758888344</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>-0.1283936916238689</v>
       </c>
       <c r="L138">
-        <v>-0.09857135820385224</v>
+        <v>-0.09857135820385236</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -6524,7 +6524,7 @@
         <v>0.08655532357849736</v>
       </c>
       <c r="L139">
-        <v>0.06646862151971754</v>
+        <v>0.06646862151971825</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -6568,7 +6568,7 @@
         <v>0.2292974208640022</v>
       </c>
       <c r="L140">
-        <v>0.2976370299485056</v>
+        <v>0.2976370299485055</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -6612,7 +6612,7 @@
         <v>0.2335028977372046</v>
       </c>
       <c r="L141">
-        <v>0.7103083354949692</v>
+        <v>0.710308335494969</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -6656,7 +6656,7 @@
         <v>0.2281417865877166</v>
       </c>
       <c r="L142">
-        <v>0.82585618496483</v>
+        <v>0.8258561849648299</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -6700,10 +6700,10 @@
         <v>0.07517553719034932</v>
       </c>
       <c r="L143">
-        <v>0.09459055347085858</v>
+        <v>0.09459055347085878</v>
       </c>
       <c r="M143">
-        <v>0.03703238412749389</v>
+        <v>0.03703238412749325</v>
       </c>
       <c r="N143">
         <v>0.5</v>
@@ -6744,7 +6744,7 @@
         <v>0.4369109673830172</v>
       </c>
       <c r="L144">
-        <v>0.9570798073219419</v>
+        <v>0.9570798073219424</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -6788,7 +6788,7 @@
         <v>0.3107803125513237</v>
       </c>
       <c r="L145">
-        <v>1.336760777180764</v>
+        <v>1.336760777180763</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -6923,7 +6923,7 @@
         <v>1.373306957191588</v>
       </c>
       <c r="M148">
-        <v>0.8274542880468406</v>
+        <v>0.8274542880468405</v>
       </c>
       <c r="N148">
         <v>0.5</v>
@@ -6967,7 +6967,7 @@
         <v>1.51663178051555</v>
       </c>
       <c r="M149">
-        <v>0.9167207727017609</v>
+        <v>0.9167207727017608</v>
       </c>
       <c r="N149">
         <v>0.5</v>
@@ -7008,10 +7008,10 @@
         <v>0.2825717450899235</v>
       </c>
       <c r="L150">
-        <v>1.409319220384152</v>
+        <v>1.409319220384153</v>
       </c>
       <c r="M150">
-        <v>0.8475415877573801</v>
+        <v>0.8475415877573802</v>
       </c>
       <c r="N150">
         <v>0.5</v>
@@ -7184,7 +7184,7 @@
         <v>0.3972656537828223</v>
       </c>
       <c r="L154">
-        <v>3.104278913005316</v>
+        <v>3.104278913005317</v>
       </c>
       <c r="M154">
         <v>1</v>
@@ -7228,10 +7228,10 @@
         <v>0.3027858057235128</v>
       </c>
       <c r="L155">
-        <v>2.69762530488208</v>
+        <v>2.697625304882081</v>
       </c>
       <c r="M155">
-        <v>0.7650720990843155</v>
+        <v>0.7650720990843158</v>
       </c>
       <c r="N155">
         <v>0.5</v>
@@ -7275,7 +7275,7 @@
         <v>1.739485308790524</v>
       </c>
       <c r="M156">
-        <v>0.2115449359933713</v>
+        <v>0.211544935993371</v>
       </c>
       <c r="N156">
         <v>0.5</v>
@@ -7319,7 +7319,7 @@
         <v>2.005923136043697</v>
       </c>
       <c r="M157">
-        <v>0.3654687626378771</v>
+        <v>0.365468762637877</v>
       </c>
       <c r="N157">
         <v>0.5</v>
@@ -7360,10 +7360,10 @@
         <v>0.2084244397519488</v>
       </c>
       <c r="L158">
-        <v>1.569800203685444</v>
+        <v>1.569800203685445</v>
       </c>
       <c r="M158">
-        <v>0.09468129773228809</v>
+        <v>0.09468129773228796</v>
       </c>
       <c r="N158">
         <v>0.5</v>
@@ -7404,7 +7404,7 @@
         <v>0.1849443643751974</v>
       </c>
       <c r="L159">
-        <v>1.293061149417511</v>
+        <v>1.293061149417512</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>0.1565461809994695</v>
       </c>
       <c r="L160">
-        <v>0.9693565446496126</v>
+        <v>0.9693565446496129</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -7492,7 +7492,7 @@
         <v>0.1216089377756136</v>
       </c>
       <c r="L161">
-        <v>0.6695772218260104</v>
+        <v>0.6695772218260112</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0.1092786919472577</v>
       </c>
       <c r="L162">
-        <v>0.5425043781965916</v>
+        <v>0.5425043781965904</v>
       </c>
       <c r="M162">
         <v>0</v>
@@ -7580,10 +7580,10 @@
         <v>0.67518138815422</v>
       </c>
       <c r="L163">
-        <v>1.087927056556814</v>
+        <v>1.087927056556813</v>
       </c>
       <c r="M163">
-        <v>0.2129081505609337</v>
+        <v>0.212908150560934</v>
       </c>
       <c r="N163">
         <v>0.5</v>
@@ -7624,7 +7624,7 @@
         <v>0.6257391438364451</v>
       </c>
       <c r="L164">
-        <v>-0.7060225424693521</v>
+        <v>-0.7060225424693524</v>
       </c>
       <c r="M164">
         <v>1</v>
@@ -7668,7 +7668,7 @@
         <v>0.6155563535983881</v>
       </c>
       <c r="L165">
-        <v>-0.5722063435209263</v>
+        <v>-0.5722063435209256</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0.6262377048619823</v>
       </c>
       <c r="L167">
-        <v>-0.4292995215241278</v>
+        <v>-0.4292995215241279</v>
       </c>
       <c r="M167">
         <v>0</v>
@@ -7800,7 +7800,7 @@
         <v>0.721083691126158</v>
       </c>
       <c r="L168">
-        <v>-0.2096835934280188</v>
+        <v>-0.2096835934280187</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -7844,10 +7844,10 @@
         <v>0.7214673072725131</v>
       </c>
       <c r="L169">
-        <v>-0.2103839846596322</v>
+        <v>-0.2103839846596321</v>
       </c>
       <c r="M169">
-        <v>0.00103332685424082</v>
+        <v>0.001033326854240861</v>
       </c>
       <c r="N169">
         <v>0.5</v>
@@ -7888,10 +7888,10 @@
         <v>0.6595640456692131</v>
       </c>
       <c r="L170">
-        <v>0.6191710328576467</v>
+        <v>0.6191710328576471</v>
       </c>
       <c r="M170">
-        <v>0.1405637457018628</v>
+        <v>0.1405637457018654</v>
       </c>
       <c r="N170">
         <v>0.5</v>
@@ -7932,10 +7932,10 @@
         <v>0.6896116234892589</v>
       </c>
       <c r="L171">
-        <v>0.6595808361275264</v>
+        <v>0.6595808361275265</v>
       </c>
       <c r="M171">
-        <v>0.2146527135302067</v>
+        <v>0.2146527135302088</v>
       </c>
       <c r="N171">
         <v>0.5</v>
@@ -7976,10 +7976,10 @@
         <v>-0.11348802246834</v>
       </c>
       <c r="L172">
-        <v>0.795566356285111</v>
+        <v>0.7955663562851105</v>
       </c>
       <c r="M172">
-        <v>0.3763051875802013</v>
+        <v>0.3763051875802</v>
       </c>
       <c r="N172">
         <v>0.5</v>
@@ -8020,7 +8020,7 @@
         <v>-0.09639469988861535</v>
       </c>
       <c r="L173">
-        <v>0.9916634703373</v>
+        <v>0.9916634703372994</v>
       </c>
       <c r="M173">
         <v>1</v>
@@ -8199,7 +8199,7 @@
         <v>1.567567127314073</v>
       </c>
       <c r="M177">
-        <v>0.9737279741299092</v>
+        <v>0.9737279741299094</v>
       </c>
       <c r="N177">
         <v>0.5</v>
@@ -8240,10 +8240,10 @@
         <v>-0.1962494229033687</v>
       </c>
       <c r="L178">
-        <v>1.084899820594847</v>
+        <v>1.084899820594848</v>
       </c>
       <c r="M178">
-        <v>0.4781685116884025</v>
+        <v>0.4781685116884029</v>
       </c>
       <c r="N178">
         <v>0.5</v>
@@ -8328,10 +8328,10 @@
         <v>-0.207054161766816</v>
       </c>
       <c r="L180">
-        <v>0.8488609684435413</v>
+        <v>0.8488609684435412</v>
       </c>
       <c r="M180">
-        <v>0.2027476791491492</v>
+        <v>0.202747679149149</v>
       </c>
       <c r="N180">
         <v>0.5</v>
@@ -8372,10 +8372,10 @@
         <v>-0.2020871101920235</v>
       </c>
       <c r="L181">
-        <v>0.9340807537281425</v>
+        <v>0.9340807537281426</v>
       </c>
       <c r="M181">
-        <v>0.1736663140176517</v>
+        <v>0.1736663140176524</v>
       </c>
       <c r="N181">
         <v>0.5</v>
@@ -8416,7 +8416,7 @@
         <v>-0.2084750372852352</v>
       </c>
       <c r="L182">
-        <v>0.7588754821376701</v>
+        <v>0.7588754821376702</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>-0.2279809758427046</v>
       </c>
       <c r="L183">
-        <v>0.5591901402471953</v>
+        <v>0.5591901402471954</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -8504,7 +8504,7 @@
         <v>-0.3498356408375352</v>
       </c>
       <c r="L184">
-        <v>0.5431846711371416</v>
+        <v>0.5431846711371415</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>0.70337716445744</v>
       </c>
       <c r="M185">
-        <v>0.1525684922849818</v>
+        <v>0.152568492284982</v>
       </c>
       <c r="N185">
         <v>0.5</v>
@@ -8636,10 +8636,10 @@
         <v>-0.3522717715349165</v>
       </c>
       <c r="L187">
-        <v>0.4674172031135164</v>
+        <v>0.4674172031135166</v>
       </c>
       <c r="M187">
-        <v>0.008418253722571113</v>
+        <v>0.008418253722571288</v>
       </c>
       <c r="N187">
         <v>0.5</v>
@@ -8680,7 +8680,7 @@
         <v>-0.3614927411489868</v>
       </c>
       <c r="L188">
-        <v>0.1292294970999232</v>
+        <v>0.1292294970999233</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>175</v>
       </c>
       <c r="J189">
-        <v>-0.0230607912042827</v>
+        <v>-0.02306079120428271</v>
       </c>
       <c r="K189">
         <v>-0.4117500289502619</v>
@@ -8853,7 +8853,7 @@
         <v>-0.002840042017924985</v>
       </c>
       <c r="K192">
-        <v>0.1647159608804198</v>
+        <v>0.1647159608804197</v>
       </c>
       <c r="L192">
         <v>1.75866445200994</v>
@@ -8897,13 +8897,13 @@
         <v>-0.02362178798511426</v>
       </c>
       <c r="K193">
-        <v>0.134659702314093</v>
+        <v>0.1346597023140929</v>
       </c>
       <c r="L193">
         <v>1.07536229519666</v>
       </c>
       <c r="M193">
-        <v>0.5806508539943438</v>
+        <v>0.5806508539943439</v>
       </c>
       <c r="N193">
         <v>0.5</v>
@@ -8941,10 +8941,10 @@
         <v>-0.0001059364942865813</v>
       </c>
       <c r="K194">
-        <v>-0.1321297048847515</v>
+        <v>-0.1321297048847516</v>
       </c>
       <c r="L194">
-        <v>-0.2828166522435203</v>
+        <v>-0.2828166522435204</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -8985,10 +8985,10 @@
         <v>-0.0264500425041471</v>
       </c>
       <c r="K195">
-        <v>-0.1849794648334511</v>
+        <v>-0.1849794648334512</v>
       </c>
       <c r="L195">
-        <v>-0.594568901118346</v>
+        <v>-0.5945689011183461</v>
       </c>
       <c r="M195">
         <v>0.2089474115428187</v>
@@ -9026,16 +9026,16 @@
         <v>67</v>
       </c>
       <c r="J196">
-        <v>9.171366998676055e-05</v>
+        <v>9.171366998676055E-05</v>
       </c>
       <c r="K196">
-        <v>-0.4844576997341206</v>
+        <v>-0.4844576997341207</v>
       </c>
       <c r="L196">
         <v>-1.585795311415087</v>
       </c>
       <c r="M196">
-        <v>0.873302499379071</v>
+        <v>0.8733024993790707</v>
       </c>
       <c r="N196">
         <v>0.5</v>
@@ -9073,10 +9073,10 @@
         <v>-0.01983402228472305</v>
       </c>
       <c r="K197">
-        <v>-0.5207144920933153</v>
+        <v>-0.5207144920933154</v>
       </c>
       <c r="L197">
-        <v>-1.86705326507271</v>
+        <v>-1.867053265072709</v>
       </c>
       <c r="M197">
         <v>1</v>
@@ -9164,10 +9164,10 @@
         <v>-0.8387323056181966</v>
       </c>
       <c r="L199">
-        <v>-0.5356646936511463</v>
+        <v>-0.5356646936511468</v>
       </c>
       <c r="M199">
-        <v>0.1596024478667239</v>
+        <v>0.1596024478667242</v>
       </c>
       <c r="N199">
         <v>0.5</v>
@@ -9205,13 +9205,13 @@
         <v>0.01405090657950731</v>
       </c>
       <c r="K200">
-        <v>-0.8375840644844804</v>
+        <v>-0.8375840644844805</v>
       </c>
       <c r="L200">
-        <v>-0.7021494621545091</v>
+        <v>-0.7021494621545079</v>
       </c>
       <c r="M200">
-        <v>0.2646907706306121</v>
+        <v>0.2646907706306114</v>
       </c>
       <c r="N200">
         <v>0.5</v>
@@ -9249,13 +9249,13 @@
         <v>0.02294410281612252</v>
       </c>
       <c r="K201">
-        <v>-0.8063933057677836</v>
+        <v>-0.8063933057677838</v>
       </c>
       <c r="L201">
         <v>-1.118430333274321</v>
       </c>
       <c r="M201">
-        <v>0.5274550999919959</v>
+        <v>0.527455099991996</v>
       </c>
       <c r="N201">
         <v>0.5</v>
@@ -9299,7 +9299,7 @@
         <v>-1.286824337635778</v>
       </c>
       <c r="M202">
-        <v>0.633748568403089</v>
+        <v>0.6337485684030894</v>
       </c>
       <c r="N202">
         <v>0.5</v>
@@ -9340,10 +9340,10 @@
         <v>-0.5142811227579829</v>
       </c>
       <c r="L203">
-        <v>-1.241599513131155</v>
+        <v>-1.241599513131156</v>
       </c>
       <c r="M203">
-        <v>0.6052018070554528</v>
+        <v>0.6052018070554531</v>
       </c>
       <c r="N203">
         <v>0.5</v>
@@ -9431,7 +9431,7 @@
         <v>-1.655954662980732</v>
       </c>
       <c r="M205">
-        <v>0.8414447843227457</v>
+        <v>0.8414447843227459</v>
       </c>
       <c r="N205">
         <v>0.5</v>
@@ -9475,7 +9475,7 @@
         <v>-1.734195552271555</v>
       </c>
       <c r="M206">
-        <v>0.900211166256821</v>
+        <v>0.9002111662568216</v>
       </c>
       <c r="N206">
         <v>0.5</v>
@@ -9604,7 +9604,7 @@
         <v>-0.6665790119321621</v>
       </c>
       <c r="L209">
-        <v>-1.668061561374109</v>
+        <v>-1.668061561374108</v>
       </c>
       <c r="M209">
         <v>0.8211791238558365</v>
@@ -9651,7 +9651,7 @@
         <v>-1.564570233999496</v>
       </c>
       <c r="M210">
-        <v>0.5870498854729045</v>
+        <v>0.5870498854729044</v>
       </c>
       <c r="N210">
         <v>0.5</v>
@@ -9692,10 +9692,10 @@
         <v>-0.6616222934049292</v>
       </c>
       <c r="L211">
-        <v>-1.615086993302826</v>
+        <v>-1.615086993302825</v>
       </c>
       <c r="M211">
-        <v>0.5865065947221991</v>
+        <v>0.5865065947221989</v>
       </c>
       <c r="N211">
         <v>0.5</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>0.03568793637389558</v>
+        <v>0.03568793637389559</v>
       </c>
       <c r="K212">
         <v>-0.6742496767667623</v>
@@ -9739,7 +9739,7 @@
         <v>-1.734151313363523</v>
       </c>
       <c r="M212">
-        <v>0.773479418763358</v>
+        <v>0.7734794187633582</v>
       </c>
       <c r="N212">
         <v>0.5</v>
@@ -9824,10 +9824,10 @@
         <v>-0.51419303743831</v>
       </c>
       <c r="L214">
-        <v>-1.837436170740285</v>
+        <v>-1.837436170740284</v>
       </c>
       <c r="M214">
-        <v>0.7127612749128498</v>
+        <v>0.7127612749128468</v>
       </c>
       <c r="N214">
         <v>0.5</v>
@@ -9865,7 +9865,7 @@
         <v>0.02252012114766639</v>
       </c>
       <c r="K215">
-        <v>-0.5139065698813959</v>
+        <v>-0.5139065698813958</v>
       </c>
       <c r="L215">
         <v>-2.416684373277675</v>
@@ -9915,7 +9915,7 @@
         <v>-1.887059903007977</v>
       </c>
       <c r="M216">
-        <v>0.3784583005296218</v>
+        <v>0.3784583005296217</v>
       </c>
       <c r="N216">
         <v>0.5</v>
@@ -9956,7 +9956,7 @@
         <v>-0.4161885929146521</v>
       </c>
       <c r="L217">
-        <v>-1.533910478496545</v>
+        <v>-1.533910478496543</v>
       </c>
       <c r="M217">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>-0.4086213837870499</v>
       </c>
       <c r="L218">
-        <v>-1.493142386644005</v>
+        <v>-1.493142386644006</v>
       </c>
       <c r="M218">
         <v>0</v>
@@ -10044,10 +10044,10 @@
         <v>-0.1769213949765538</v>
       </c>
       <c r="L219">
-        <v>-1.981668031612648</v>
+        <v>-1.981668031612647</v>
       </c>
       <c r="M219">
-        <v>0.5289696105201774</v>
+        <v>0.5289696105201757</v>
       </c>
       <c r="N219">
         <v>0.5</v>
@@ -10176,7 +10176,7 @@
         <v>-0.2326229145263054</v>
       </c>
       <c r="L222">
-        <v>-0.8146118960834465</v>
+        <v>-0.8146118960834466</v>
       </c>
       <c r="M222">
         <v>0</v>
@@ -10217,10 +10217,10 @@
         <v>0.02595473715546746</v>
       </c>
       <c r="K223">
-        <v>-0.4253700918715081</v>
+        <v>-0.425370091871508</v>
       </c>
       <c r="L223">
-        <v>-0.5933513256376155</v>
+        <v>-0.5933513256376157</v>
       </c>
       <c r="M223">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>-0.2664718327967957</v>
       </c>
       <c r="L224">
-        <v>-0.3304500185759892</v>
+        <v>-0.3304500185759886</v>
       </c>
       <c r="M224">
         <v>0</v>
@@ -10305,13 +10305,13 @@
         <v>0.01141430833498261</v>
       </c>
       <c r="K225">
-        <v>-0.2388634113599327</v>
+        <v>-0.2388634113599326</v>
       </c>
       <c r="L225">
         <v>-0.5339462354860549</v>
       </c>
       <c r="M225">
-        <v>0.1232400660018405</v>
+        <v>0.1232400660018408</v>
       </c>
       <c r="N225">
         <v>0.5</v>
@@ -10349,10 +10349,10 @@
         <v>0.005667011012890267</v>
       </c>
       <c r="K226">
-        <v>-0.2276988888985671</v>
+        <v>-0.227698888898567</v>
       </c>
       <c r="L226">
-        <v>-0.2684239835598656</v>
+        <v>-0.2684239835598658</v>
       </c>
       <c r="M226">
         <v>0</v>
@@ -10393,10 +10393,10 @@
         <v>0.01868246297437381</v>
       </c>
       <c r="K227">
-        <v>-0.2314114517287569</v>
+        <v>-0.2314114517287568</v>
       </c>
       <c r="L227">
-        <v>-0.1027850096487256</v>
+        <v>-0.1027850096487254</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -10437,10 +10437,10 @@
         <v>0.004208261115841451</v>
       </c>
       <c r="K228">
-        <v>-0.1814490254108713</v>
+        <v>-0.1814490254108712</v>
       </c>
       <c r="L228">
-        <v>0.1722841098614517</v>
+        <v>0.1722841098614509</v>
       </c>
       <c r="M228">
         <v>1</v>
@@ -10481,10 +10481,10 @@
         <v>0.0164449829975837</v>
       </c>
       <c r="K229">
-        <v>0.02960105012198844</v>
+        <v>0.02960105012198857</v>
       </c>
       <c r="L229">
-        <v>-0.07689918419427368</v>
+        <v>-0.07689918419427376</v>
       </c>
       <c r="M229">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0.0274964898255427</v>
       </c>
       <c r="K230">
-        <v>0.08987772900755818</v>
+        <v>0.0898777290075583</v>
       </c>
       <c r="L230">
         <v>0.1929304267346515</v>
@@ -10569,10 +10569,10 @@
         <v>0.01133426113642979</v>
       </c>
       <c r="K231">
-        <v>0.2052975313504744</v>
+        <v>0.2052975313504745</v>
       </c>
       <c r="L231">
-        <v>0.6960843447568739</v>
+        <v>0.6960843447568736</v>
       </c>
       <c r="M231">
         <v>1</v>
@@ -10616,7 +10616,7 @@
         <v>0.2169482523307804</v>
       </c>
       <c r="L232">
-        <v>0.9316525138511739</v>
+        <v>0.9316525138511738</v>
       </c>
       <c r="M232">
         <v>1</v>
@@ -10660,7 +10660,7 @@
         <v>0.06323363349283184</v>
       </c>
       <c r="L233">
-        <v>1.306182522814672</v>
+        <v>1.306182522814673</v>
       </c>
       <c r="M233">
         <v>1</v>
@@ -10704,10 +10704,10 @@
         <v>-0.06004521497771873</v>
       </c>
       <c r="L234">
-        <v>0.5263792199628947</v>
+        <v>0.5263792199628952</v>
       </c>
       <c r="M234">
-        <v>0.3122811585732869</v>
+        <v>0.3122811585732877</v>
       </c>
       <c r="N234">
         <v>0.5</v>
@@ -10748,10 +10748,10 @@
         <v>0.004125980250703502</v>
       </c>
       <c r="L235">
-        <v>0.7653171115914323</v>
+        <v>0.7653171115914327</v>
       </c>
       <c r="M235">
-        <v>0.5230036438497481</v>
+        <v>0.5230036438497485</v>
       </c>
       <c r="N235">
         <v>0.5</v>
@@ -10792,10 +10792,10 @@
         <v>-0.06497764202632318</v>
       </c>
       <c r="L236">
-        <v>0.8659818180714489</v>
+        <v>0.865981818071449</v>
       </c>
       <c r="M236">
-        <v>0.6117811792356889</v>
+        <v>0.611781179235689</v>
       </c>
       <c r="N236">
         <v>0.5</v>
@@ -10836,10 +10836,10 @@
         <v>-0.101307679375246</v>
       </c>
       <c r="L237">
-        <v>0.7822895394873678</v>
+        <v>0.7822895394873681</v>
       </c>
       <c r="M237">
-        <v>0.5379718523788799</v>
+        <v>0.5379718523788802</v>
       </c>
       <c r="N237">
         <v>0.5</v>
@@ -10880,10 +10880,10 @@
         <v>-0.006055143644715741</v>
       </c>
       <c r="L238">
-        <v>0.9666571070596047</v>
+        <v>0.9666571070596046</v>
       </c>
       <c r="M238">
-        <v>0.6950147976809536</v>
+        <v>0.6950147976809533</v>
       </c>
       <c r="N238">
         <v>0.5</v>
@@ -10924,10 +10924,10 @@
         <v>0.4181996939308406</v>
       </c>
       <c r="L239">
-        <v>1.251678544925903</v>
+        <v>1.251678544925904</v>
       </c>
       <c r="M239">
-        <v>0.9510407587996571</v>
+        <v>0.9510407587996573</v>
       </c>
       <c r="N239">
         <v>0.5</v>
@@ -11056,7 +11056,7 @@
         <v>0.4968750053183547</v>
       </c>
       <c r="L242">
-        <v>2.346429371864298</v>
+        <v>2.346429371864297</v>
       </c>
       <c r="M242">
         <v>1</v>
@@ -11100,7 +11100,7 @@
         <v>0.5468480086918082</v>
       </c>
       <c r="L243">
-        <v>2.734710146967281</v>
+        <v>2.73471014696728</v>
       </c>
       <c r="M243">
         <v>1</v>
@@ -11147,7 +11147,7 @@
         <v>2.32893879136472</v>
       </c>
       <c r="M244">
-        <v>0.793961211239319</v>
+        <v>0.7939612112393192</v>
       </c>
       <c r="N244">
         <v>0.5</v>
@@ -11188,10 +11188,10 @@
         <v>0.5618822303656139</v>
       </c>
       <c r="L245">
-        <v>2.703783904415504</v>
+        <v>2.703783904415503</v>
       </c>
       <c r="M245">
-        <v>0.9841600511522491</v>
+        <v>0.9841600511522489</v>
       </c>
       <c r="N245">
         <v>0.5</v>
@@ -11232,10 +11232,10 @@
         <v>0.6409040552748044</v>
       </c>
       <c r="L246">
-        <v>2.343126173612537</v>
+        <v>2.343126173612535</v>
       </c>
       <c r="M246">
-        <v>0.7994366726848979</v>
+        <v>0.7994366726848974</v>
       </c>
       <c r="N246">
         <v>0.5</v>
@@ -11279,7 +11279,7 @@
         <v>2.194780612652989</v>
       </c>
       <c r="M247">
-        <v>0.6946191533131346</v>
+        <v>0.6946191533131348</v>
       </c>
       <c r="N247">
         <v>0.5</v>
@@ -11320,10 +11320,10 @@
         <v>0.643838525594589</v>
       </c>
       <c r="L248">
-        <v>1.723506282916024</v>
+        <v>1.723506282916023</v>
       </c>
       <c r="M248">
-        <v>0.318150831944953</v>
+        <v>0.3181508319449521</v>
       </c>
       <c r="N248">
         <v>0.5</v>
@@ -11364,10 +11364,10 @@
         <v>0.6643127639708556</v>
       </c>
       <c r="L249">
-        <v>1.595199134654666</v>
+        <v>1.595199134654665</v>
       </c>
       <c r="M249">
-        <v>0.03550592329716407</v>
+        <v>0.03550592329716332</v>
       </c>
       <c r="N249">
         <v>0.5</v>
@@ -11452,7 +11452,7 @@
         <v>0.4750298829122213</v>
       </c>
       <c r="L251">
-        <v>0.982696720725456</v>
+        <v>0.9826967207254558</v>
       </c>
       <c r="M251">
         <v>0</v>
@@ -11496,7 +11496,7 @@
         <v>0.4671573825897569</v>
       </c>
       <c r="L252">
-        <v>0.8951940903121046</v>
+        <v>0.8951940903121055</v>
       </c>
       <c r="M252">
         <v>0</v>
@@ -11540,10 +11540,10 @@
         <v>0.4665869423201624</v>
       </c>
       <c r="L253">
-        <v>0.9007501692142772</v>
+        <v>0.900750169214277</v>
       </c>
       <c r="M253">
-        <v>0.003072050311710386</v>
+        <v>0.003072050311709775</v>
       </c>
       <c r="N253">
         <v>0.5</v>
@@ -11587,7 +11587,7 @@
         <v>1.943778606516113</v>
       </c>
       <c r="M254">
-        <v>0.5797801734960226</v>
+        <v>0.5797801734960224</v>
       </c>
       <c r="N254">
         <v>0.5</v>
@@ -11672,10 +11672,10 @@
         <v>0.6467431242287274</v>
       </c>
       <c r="L256">
-        <v>1.665464725755342</v>
+        <v>1.665464725755343</v>
       </c>
       <c r="M256">
-        <v>0.5927043888203654</v>
+        <v>0.5927043888203656</v>
       </c>
       <c r="N256">
         <v>0.5</v>
@@ -11760,10 +11760,10 @@
         <v>0.4554692007919761</v>
       </c>
       <c r="L258">
-        <v>1.910519663245372</v>
+        <v>1.910519663245371</v>
       </c>
       <c r="M258">
-        <v>0.6939102724907725</v>
+        <v>0.693910272490772</v>
       </c>
       <c r="N258">
         <v>0.5</v>
@@ -11807,7 +11807,7 @@
         <v>1.115654216345539</v>
       </c>
       <c r="M259">
-        <v>0.1506704353828632</v>
+        <v>0.1506704353828626</v>
       </c>
       <c r="N259">
         <v>0.5</v>
@@ -11892,7 +11892,7 @@
         <v>-0.2716503026974956</v>
       </c>
       <c r="L261">
-        <v>0.5034919635345003</v>
+        <v>0.5034919635345002</v>
       </c>
       <c r="M261">
         <v>0</v>
@@ -11936,10 +11936,10 @@
         <v>-0.2004326948993503</v>
       </c>
       <c r="L262">
-        <v>0.9809046753020657</v>
+        <v>0.9809046753020653</v>
       </c>
       <c r="M262">
-        <v>0.2573797104677386</v>
+        <v>0.2573797104677383</v>
       </c>
       <c r="N262">
         <v>0.5</v>
@@ -11980,10 +11980,10 @@
         <v>-0.2257180743577499</v>
       </c>
       <c r="L263">
-        <v>0.8511653464140077</v>
+        <v>0.8511653464140075</v>
       </c>
       <c r="M263">
-        <v>0.187435467085831</v>
+        <v>0.1874354670858309</v>
       </c>
       <c r="N263">
         <v>0.5</v>
@@ -12024,7 +12024,7 @@
         <v>-0.401764155323645</v>
       </c>
       <c r="L264">
-        <v>-0.2147896672097641</v>
+        <v>-0.2147896672097643</v>
       </c>
       <c r="M264">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>-0.376849206612571</v>
       </c>
       <c r="L265">
-        <v>0.04500712645599734</v>
+        <v>0.045007126455997</v>
       </c>
       <c r="M265">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>-0.4498688121283431</v>
       </c>
       <c r="L266">
-        <v>-0.05668753914263965</v>
+        <v>-0.05668753914263946</v>
       </c>
       <c r="M266">
         <v>0</v>
@@ -12159,7 +12159,7 @@
         <v>-0.5528080932642395</v>
       </c>
       <c r="M267">
-        <v>0.2593428099904246</v>
+        <v>0.2593428099904248</v>
       </c>
       <c r="N267">
         <v>0.5</v>
@@ -12200,10 +12200,10 @@
         <v>-0.5497379711333878</v>
       </c>
       <c r="L268">
-        <v>-0.9663702473346345</v>
+        <v>-0.9663702473346343</v>
       </c>
       <c r="M268">
-        <v>0.4755289168777054</v>
+        <v>0.4755289168777055</v>
       </c>
       <c r="N268">
         <v>0.5</v>
@@ -12244,10 +12244,10 @@
         <v>-0.2699289233637155</v>
       </c>
       <c r="L269">
-        <v>-0.3867471047694183</v>
+        <v>-0.3867471047694184</v>
       </c>
       <c r="M269">
-        <v>0.1725358373136208</v>
+        <v>0.1725358373136209</v>
       </c>
       <c r="N269">
         <v>0.5</v>
@@ -12288,7 +12288,7 @@
         <v>-0.2510959412283904</v>
       </c>
       <c r="L270">
-        <v>-0.3063685995972811</v>
+        <v>-0.306368599597281</v>
       </c>
       <c r="M270">
         <v>0.2744704919706406</v>
@@ -12332,10 +12332,10 @@
         <v>-0.2877367415059215</v>
       </c>
       <c r="L271">
-        <v>-0.5480432371639513</v>
+        <v>-0.5480432371639511</v>
       </c>
       <c r="M271">
-        <v>0.5401396482493187</v>
+        <v>0.5401396482493186</v>
       </c>
       <c r="N271">
         <v>0.5</v>
@@ -12379,7 +12379,7 @@
         <v>-0.5349824115112639</v>
       </c>
       <c r="M272">
-        <v>0.5257820865027115</v>
+        <v>0.5257820865027116</v>
       </c>
       <c r="N272">
         <v>0.5</v>
@@ -12420,7 +12420,7 @@
         <v>-0.2726658802997522</v>
       </c>
       <c r="L273">
-        <v>-0.6418569205833842</v>
+        <v>-0.6418569205833839</v>
       </c>
       <c r="M273">
         <v>0.6432675659008354</v>
@@ -12464,7 +12464,7 @@
         <v>-0.2387405724004127</v>
       </c>
       <c r="L274">
-        <v>-0.6668373513407104</v>
+        <v>-0.6668373513407102</v>
       </c>
       <c r="M274">
         <v>0.6707281634612476</v>
@@ -12508,7 +12508,7 @@
         <v>-0.2288102079080207</v>
       </c>
       <c r="L275">
-        <v>-0.885556510191673</v>
+        <v>-0.8855565101916728</v>
       </c>
       <c r="M275">
         <v>0.9111627203472079</v>
@@ -12731,7 +12731,7 @@
         <v>-1.154967637783311</v>
       </c>
       <c r="M280">
-        <v>0.3125504815069419</v>
+        <v>0.3125504815069421</v>
       </c>
       <c r="N280">
         <v>0.5</v>
@@ -12816,10 +12816,10 @@
         <v>-0.08423086366597143</v>
       </c>
       <c r="L282">
-        <v>-0.2559277877367334</v>
+        <v>-0.2559277877367337</v>
       </c>
       <c r="M282">
-        <v>0.02163099826586001</v>
+        <v>0.02163099826586015</v>
       </c>
       <c r="N282">
         <v>0.5</v>
@@ -12860,7 +12860,7 @@
         <v>-0.07485044998393493</v>
       </c>
       <c r="L283">
-        <v>-0.1215850861714995</v>
+        <v>-0.1215850861714994</v>
       </c>
       <c r="M283">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>0.3115426269486663</v>
       </c>
       <c r="L284">
-        <v>0.6334534442833442</v>
+        <v>0.6334534442833447</v>
       </c>
       <c r="M284">
         <v>1</v>
@@ -12992,10 +12992,10 @@
         <v>0.2889230194659852</v>
       </c>
       <c r="L286">
-        <v>0.4825285800012756</v>
+        <v>0.4825285800012755</v>
       </c>
       <c r="M286">
-        <v>0.2512286255493399</v>
+        <v>0.2512286255493388</v>
       </c>
       <c r="N286">
         <v>0.5</v>
@@ -13036,10 +13036,10 @@
         <v>0.4355573324939746</v>
       </c>
       <c r="L287">
-        <v>0.57703947847463</v>
+        <v>0.5770394784746306</v>
       </c>
       <c r="M287">
-        <v>0.7201179347237476</v>
+        <v>0.7201179347237485</v>
       </c>
       <c r="N287">
         <v>0.5</v>
@@ -13080,10 +13080,10 @@
         <v>0.6287207892041978</v>
       </c>
       <c r="L288">
-        <v>0.5651943546287106</v>
+        <v>0.5651943546287105</v>
       </c>
       <c r="M288">
-        <v>0.6613516757323117</v>
+        <v>0.6613516757323095</v>
       </c>
       <c r="N288">
         <v>0.5</v>
@@ -13124,7 +13124,7 @@
         <v>0.0452144648623674</v>
       </c>
       <c r="L289">
-        <v>0.06617362884226444</v>
+        <v>0.06617362884226403</v>
       </c>
       <c r="M289">
         <v>0</v>
@@ -13168,10 +13168,10 @@
         <v>0.06745715494719962</v>
       </c>
       <c r="L290">
-        <v>0.275907169324844</v>
+        <v>0.2759071693248438</v>
       </c>
       <c r="M290">
-        <v>0.3697179677008329</v>
+        <v>0.3697179677008327</v>
       </c>
       <c r="N290">
         <v>0.5</v>
@@ -13212,10 +13212,10 @@
         <v>-0.02793659127744241</v>
       </c>
       <c r="L291">
-        <v>0.0971284489291725</v>
+        <v>0.09712844892917259</v>
       </c>
       <c r="M291">
-        <v>0.05456710999463221</v>
+        <v>0.054567109994633</v>
       </c>
       <c r="N291">
         <v>0.5</v>
@@ -13432,7 +13432,7 @@
         <v>-0.6098458515929794</v>
       </c>
       <c r="L296">
-        <v>-1.296326461375733</v>
+        <v>-1.296326461375734</v>
       </c>
       <c r="M296">
         <v>0.5974336721101562</v>
@@ -13479,7 +13479,7 @@
         <v>-1.132877697747295</v>
       </c>
       <c r="M297">
-        <v>0.4798043200383372</v>
+        <v>0.479804320038337</v>
       </c>
       <c r="N297">
         <v>0.5</v>
@@ -13520,10 +13520,10 @@
         <v>-0.4870769019016056</v>
       </c>
       <c r="L298">
-        <v>-0.9436661641601337</v>
+        <v>-0.9436661641601339</v>
       </c>
       <c r="M298">
-        <v>0.3436342468833729</v>
+        <v>0.343634246883373</v>
       </c>
       <c r="N298">
         <v>0.5</v>
@@ -13564,10 +13564,10 @@
         <v>-0.4735111041980507</v>
       </c>
       <c r="L299">
-        <v>-0.8785572853551978</v>
+        <v>-0.8785572853551977</v>
       </c>
       <c r="M299">
-        <v>0.2967772682319012</v>
+        <v>0.296777268231901</v>
       </c>
       <c r="N299">
         <v>0.5</v>
@@ -13608,7 +13608,7 @@
         <v>-0.463994041353897</v>
       </c>
       <c r="L300">
-        <v>-0.8314614651281039</v>
+        <v>-0.831461465128104</v>
       </c>
       <c r="M300">
         <v>0.2628837673229715</v>
@@ -13652,7 +13652,7 @@
         <v>-0.4958474446073246</v>
       </c>
       <c r="L301">
-        <v>-1.062398519660634</v>
+        <v>-1.062398519660635</v>
       </c>
       <c r="M301">
         <v>0.4290824921771338</v>
@@ -13699,7 +13699,7 @@
         <v>-1.261867805358691</v>
       </c>
       <c r="M302">
-        <v>0.5722995102461993</v>
+        <v>0.5722995102461991</v>
       </c>
       <c r="N302">
         <v>0.5</v>
@@ -13743,7 +13743,7 @@
         <v>-1.254362300128404</v>
       </c>
       <c r="M303">
-        <v>0.4128921560351917</v>
+        <v>0.4128921560351915</v>
       </c>
       <c r="N303">
         <v>0.5</v>
@@ -13787,7 +13787,7 @@
         <v>-1.669450822907962</v>
       </c>
       <c r="M304">
-        <v>0.8181568917167683</v>
+        <v>0.8181568917167679</v>
       </c>
       <c r="N304">
         <v>0.5</v>
@@ -13828,7 +13828,7 @@
         <v>-0.7017462495296654</v>
       </c>
       <c r="L305">
-        <v>-1.688331222386461</v>
+        <v>-1.688331222386462</v>
       </c>
       <c r="M305">
         <v>1</v>
@@ -13963,7 +13963,7 @@
         <v>-1.625145784015426</v>
       </c>
       <c r="M308">
-        <v>0.7659510380419965</v>
+        <v>0.7659510380419964</v>
       </c>
       <c r="N308">
         <v>0.5</v>
@@ -14004,10 +14004,10 @@
         <v>-0.5060185284414372</v>
       </c>
       <c r="L309">
-        <v>-1.320801106096211</v>
+        <v>-1.320801106096212</v>
       </c>
       <c r="M309">
-        <v>0.4722409111976302</v>
+        <v>0.4722409111976306</v>
       </c>
       <c r="N309">
         <v>0.5</v>
@@ -14048,10 +14048,10 @@
         <v>-0.5471299014554698</v>
       </c>
       <c r="L310">
-        <v>-1.803193323036883</v>
+        <v>-1.803193323036882</v>
       </c>
       <c r="M310">
-        <v>0.9199327717428403</v>
+        <v>0.9199327717428399</v>
       </c>
       <c r="N310">
         <v>0.5</v>
@@ -14180,7 +14180,7 @@
         <v>-0.5344154627255541</v>
       </c>
       <c r="L313">
-        <v>-1.918171510517715</v>
+        <v>-1.918171510517714</v>
       </c>
       <c r="M313">
         <v>1</v>
@@ -14224,7 +14224,7 @@
         <v>-0.4276973732160446</v>
       </c>
       <c r="L314">
-        <v>-0.9991479669565347</v>
+        <v>-0.9991479669565354</v>
       </c>
       <c r="M314">
         <v>0</v>
@@ -14271,7 +14271,7 @@
         <v>-1.540079820202294</v>
       </c>
       <c r="M315">
-        <v>0.5885941193080533</v>
+        <v>0.5885941193080536</v>
       </c>
       <c r="N315">
         <v>0.5</v>
@@ -14312,10 +14312,10 @@
         <v>-0.449521128358862</v>
       </c>
       <c r="L316">
-        <v>-1.280730574861668</v>
+        <v>-1.280730574861667</v>
       </c>
       <c r="M316">
-        <v>0.3063932473525234</v>
+        <v>0.3063932473525222</v>
       </c>
       <c r="N316">
         <v>0.5</v>
@@ -14359,7 +14359,7 @@
         <v>-1.349240738114729</v>
       </c>
       <c r="M317">
-        <v>0.3809399374053013</v>
+        <v>0.3809399374053011</v>
       </c>
       <c r="N317">
         <v>0.5</v>
@@ -14403,7 +14403,7 @@
         <v>-1.424018791546527</v>
       </c>
       <c r="M318">
-        <v>0.4623067902522217</v>
+        <v>0.4623067902522219</v>
       </c>
       <c r="N318">
         <v>0.5</v>
@@ -14444,10 +14444,10 @@
         <v>-0.5559465308114314</v>
       </c>
       <c r="L319">
-        <v>-1.401413476690257</v>
+        <v>-1.401413476690258</v>
       </c>
       <c r="M319">
-        <v>0.4377096893241266</v>
+        <v>0.4377096893241273</v>
       </c>
       <c r="N319">
         <v>0.5</v>
@@ -14488,10 +14488,10 @@
         <v>-0.4873158370284706</v>
       </c>
       <c r="L320">
-        <v>-1.495640543024849</v>
+        <v>-1.495640543024848</v>
       </c>
       <c r="M320">
-        <v>0.5402392349432361</v>
+        <v>0.5402392349432354</v>
       </c>
       <c r="N320">
         <v>0.5</v>
@@ -14535,7 +14535,7 @@
         <v>-1.004366618552807</v>
       </c>
       <c r="M321">
-        <v>0.005678474325097063</v>
+        <v>0.005678474325096589</v>
       </c>
       <c r="N321">
         <v>0.5</v>
@@ -14576,7 +14576,7 @@
         <v>-0.1833008222274889</v>
       </c>
       <c r="L322">
-        <v>-0.550020093609162</v>
+        <v>-0.5500200936091624</v>
       </c>
       <c r="M322">
         <v>0</v>
@@ -14620,7 +14620,7 @@
         <v>-0.2078732975077139</v>
       </c>
       <c r="L323">
-        <v>-0.511731456986848</v>
+        <v>-0.5117314569868479</v>
       </c>
       <c r="M323">
         <v>0</v>
@@ -14664,7 +14664,7 @@
         <v>-0.1613073379265093</v>
       </c>
       <c r="L324">
-        <v>-0.3277906243999613</v>
+        <v>-0.3277906243999614</v>
       </c>
       <c r="M324">
         <v>0</v>
@@ -14708,7 +14708,7 @@
         <v>0.07686547747836997</v>
       </c>
       <c r="L325">
-        <v>-0.1248201587310975</v>
+        <v>-0.1248201587310966</v>
       </c>
       <c r="M325">
         <v>0</v>
@@ -14796,7 +14796,7 @@
         <v>0.2030408976492618</v>
       </c>
       <c r="L327">
-        <v>0.1657306545427607</v>
+        <v>0.1657306545427603</v>
       </c>
       <c r="M327">
         <v>1</v>
@@ -14843,7 +14843,7 @@
         <v>-0.2255180388900822</v>
       </c>
       <c r="M328">
-        <v>0.07345811407003876</v>
+        <v>0.07345811407003935</v>
       </c>
       <c r="N328">
         <v>0.5</v>
@@ -14931,7 +14931,7 @@
         <v>0.1254610082395786</v>
       </c>
       <c r="M330">
-        <v>0.3557742902486796</v>
+        <v>0.3557742902486838</v>
       </c>
       <c r="N330">
         <v>0.5</v>
@@ -15060,7 +15060,7 @@
         <v>0.3985876226147727</v>
       </c>
       <c r="L333">
-        <v>0.6855216731481554</v>
+        <v>0.6855216731481555</v>
       </c>
       <c r="M333">
         <v>1</v>
@@ -15104,7 +15104,7 @@
         <v>0.3644584234543898</v>
       </c>
       <c r="L334">
-        <v>0.5541165576426041</v>
+        <v>0.5541165576426043</v>
       </c>
       <c r="M334">
         <v>0.7743341887555947</v>
@@ -15148,10 +15148,10 @@
         <v>0.3897349367235984</v>
       </c>
       <c r="L335">
-        <v>0.5566164406067954</v>
+        <v>0.5566164406067953</v>
       </c>
       <c r="M335">
-        <v>0.7786273101836296</v>
+        <v>0.7786273101836292</v>
       </c>
       <c r="N335">
         <v>0.5</v>
@@ -15192,7 +15192,7 @@
         <v>0.4722579684676567</v>
       </c>
       <c r="L336">
-        <v>0.8613449900435992</v>
+        <v>0.8613449900435991</v>
       </c>
       <c r="M336">
         <v>1</v>
@@ -15236,7 +15236,7 @@
         <v>0.3575614128328816</v>
       </c>
       <c r="L337">
-        <v>0.8944538343828545</v>
+        <v>0.8944538343828548</v>
       </c>
       <c r="M337">
         <v>1</v>
@@ -15368,7 +15368,7 @@
         <v>0.3210473375766661</v>
       </c>
       <c r="L340">
-        <v>2.499775994267557</v>
+        <v>2.499775994267556</v>
       </c>
       <c r="M340">
         <v>1</v>
@@ -15412,10 +15412,10 @@
         <v>-0.1580033149516464</v>
       </c>
       <c r="L341">
-        <v>1.470166575961139</v>
+        <v>1.47016657596114</v>
       </c>
       <c r="M341">
-        <v>0.523102160190614</v>
+        <v>0.5231021601906142</v>
       </c>
       <c r="N341">
         <v>0.5</v>
@@ -15459,7 +15459,7 @@
         <v>1.466923631010601</v>
       </c>
       <c r="M342">
-        <v>0.4691504875855366</v>
+        <v>0.4691504875855367</v>
       </c>
       <c r="N342">
         <v>0.5</v>
@@ -15500,10 +15500,10 @@
         <v>-0.09632902575503086</v>
       </c>
       <c r="L343">
-        <v>2.184471162628061</v>
+        <v>2.184471162628062</v>
       </c>
       <c r="M343">
-        <v>0.8379444903336006</v>
+        <v>0.8379444903336013</v>
       </c>
       <c r="N343">
         <v>0.5</v>
@@ -15544,10 +15544,10 @@
         <v>-0.1436587247278545</v>
       </c>
       <c r="L344">
-        <v>1.624818911247495</v>
+        <v>1.624818911247496</v>
       </c>
       <c r="M344">
-        <v>0.5497245291197471</v>
+        <v>0.5497245291197473</v>
       </c>
       <c r="N344">
         <v>0.5</v>
@@ -15591,7 +15591,7 @@
         <v>1.036743466085192</v>
       </c>
       <c r="M345">
-        <v>0.107052708102695</v>
+        <v>0.1070527081026949</v>
       </c>
       <c r="N345">
         <v>0.5</v>
@@ -15632,7 +15632,7 @@
         <v>-0.3917201498784394</v>
       </c>
       <c r="L346">
-        <v>0.6187307708723898</v>
+        <v>0.6187307708723897</v>
       </c>
       <c r="M346">
         <v>0</v>
@@ -15676,7 +15676,7 @@
         <v>-0.3920446696418078</v>
       </c>
       <c r="L347">
-        <v>0.19416490257754</v>
+        <v>0.1941649025775402</v>
       </c>
       <c r="M347">
         <v>0</v>
@@ -15720,7 +15720,7 @@
         <v>-0.2915361188217208</v>
       </c>
       <c r="L348">
-        <v>0.02877680470758744</v>
+        <v>0.02877680470758731</v>
       </c>
       <c r="M348">
         <v>0</v>
@@ -15764,7 +15764,7 @@
         <v>-0.4756565231153984</v>
       </c>
       <c r="L349">
-        <v>-0.6050434818862357</v>
+        <v>-0.6050434818862356</v>
       </c>
       <c r="M349">
         <v>1</v>
@@ -15808,7 +15808,7 @@
         <v>-0.4790036656476099</v>
       </c>
       <c r="L350">
-        <v>-0.8174758975256177</v>
+        <v>-0.8174758975256178</v>
       </c>
       <c r="M350">
         <v>1</v>
@@ -15940,7 +15940,7 @@
         <v>-0.8327252066569131</v>
       </c>
       <c r="L353">
-        <v>-2.069596791288708</v>
+        <v>-2.069596791288707</v>
       </c>
       <c r="M353">
         <v>1</v>
@@ -16031,7 +16031,7 @@
         <v>-1.94845468769305</v>
       </c>
       <c r="M355">
-        <v>0.9058490139666537</v>
+        <v>0.905849013966654</v>
       </c>
       <c r="N355">
         <v>0.5</v>
@@ -16072,7 +16072,7 @@
         <v>-0.8799323620280284</v>
       </c>
       <c r="L356">
-        <v>-1.916253849250553</v>
+        <v>-1.916253849250552</v>
       </c>
       <c r="M356">
         <v>0.8841363040934935</v>
@@ -16116,7 +16116,7 @@
         <v>-0.6013661569727914</v>
       </c>
       <c r="L357">
-        <v>-0.8483720331212314</v>
+        <v>-0.8483720331212312</v>
       </c>
       <c r="M357">
         <v>0.1640740580794679</v>
@@ -16163,7 +16163,7 @@
         <v>-1.191468259611939</v>
       </c>
       <c r="M358">
-        <v>0.3954204821072721</v>
+        <v>0.3954204821072723</v>
       </c>
       <c r="N358">
         <v>0.5</v>
@@ -16204,10 +16204,10 @@
         <v>-0.7067639301673612</v>
       </c>
       <c r="L359">
-        <v>-0.9788478380911385</v>
+        <v>-0.9788478380911381</v>
       </c>
       <c r="M359">
-        <v>0.1270036623365784</v>
+        <v>0.127003662336578</v>
       </c>
       <c r="N359">
         <v>0.5</v>
@@ -16248,7 +16248,7 @@
         <v>-0.7083345601990836</v>
       </c>
       <c r="L360">
-        <v>-0.7864979446686152</v>
+        <v>-0.7864979446686151</v>
       </c>
       <c r="M360">
         <v>0</v>
@@ -16292,7 +16292,7 @@
         <v>-0.6447321636832251</v>
       </c>
       <c r="L361">
-        <v>-0.2972534633044742</v>
+        <v>-0.297253463304474</v>
       </c>
       <c r="M361">
         <v>0</v>
@@ -16336,10 +16336,10 @@
         <v>-0.4968460165298247</v>
       </c>
       <c r="L362">
-        <v>-0.33701857492662</v>
+        <v>-0.337018574926619</v>
       </c>
       <c r="M362">
-        <v>0.02220483772161774</v>
+        <v>0.02220483772161727</v>
       </c>
       <c r="N362">
         <v>0.5</v>
@@ -16380,10 +16380,10 @@
         <v>-0.5236037047209824</v>
       </c>
       <c r="L363">
-        <v>-0.6146757690065913</v>
+        <v>-0.6146757690065907</v>
       </c>
       <c r="M363">
-        <v>0.1772486106492387</v>
+        <v>0.1772486106492385</v>
       </c>
       <c r="N363">
         <v>0.5</v>
@@ -16427,7 +16427,7 @@
         <v>-0.5610117921112915</v>
       </c>
       <c r="M364">
-        <v>0.1597372415372842</v>
+        <v>0.1597372415372843</v>
       </c>
       <c r="N364">
         <v>0.5</v>
@@ -16468,10 +16468,10 @@
         <v>-0.5792087920936319</v>
       </c>
       <c r="L365">
-        <v>-0.669629591942668</v>
+        <v>-0.6696295919426682</v>
       </c>
       <c r="M365">
-        <v>0.2300037306171439</v>
+        <v>0.2300037306171442</v>
       </c>
       <c r="N365">
         <v>0.5</v>
@@ -16512,10 +16512,10 @@
         <v>-0.5856055839584724</v>
       </c>
       <c r="L366">
-        <v>-0.9450496057137564</v>
+        <v>-0.9450496057137566</v>
       </c>
       <c r="M366">
-        <v>0.7244301314228595</v>
+        <v>0.7244301314228599</v>
       </c>
       <c r="N366">
         <v>0.5</v>
@@ -16556,10 +16556,10 @@
         <v>-0.5741298035646767</v>
       </c>
       <c r="L367">
-        <v>-0.9434484934947616</v>
+        <v>-0.9434484934947617</v>
       </c>
       <c r="M367">
-        <v>0.7226396083565825</v>
+        <v>0.7226396083565826</v>
       </c>
       <c r="N367">
         <v>0.5</v>
@@ -16600,10 +16600,10 @@
         <v>-0.4906663926235817</v>
       </c>
       <c r="L368">
-        <v>-0.6713937361539275</v>
+        <v>-0.6713937361539276</v>
       </c>
       <c r="M368">
-        <v>0.5489192497613516</v>
+        <v>0.5489192497613523</v>
       </c>
       <c r="N368">
         <v>0.5</v>
@@ -16644,10 +16644,10 @@
         <v>-0.4886433549403728</v>
       </c>
       <c r="L369">
-        <v>-0.6009559200331133</v>
+        <v>-0.6009559200331134</v>
       </c>
       <c r="M369">
-        <v>0.4688241205004857</v>
+        <v>0.4688241205004858</v>
       </c>
       <c r="N369">
         <v>0.5</v>
@@ -16688,7 +16688,7 @@
         <v>-0.3974985953405946</v>
       </c>
       <c r="L370">
-        <v>-0.1796386220521383</v>
+        <v>-0.1796386220521389</v>
       </c>
       <c r="M370">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <v>-0.2425006640113767</v>
       </c>
       <c r="L371">
-        <v>0.6553210979225629</v>
+        <v>0.6553210979225633</v>
       </c>
       <c r="M371">
         <v>1</v>
@@ -16776,7 +16776,7 @@
         <v>-0.202155233234288</v>
       </c>
       <c r="L372">
-        <v>0.8445894767263288</v>
+        <v>0.844589476726329</v>
       </c>
       <c r="M372">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>-0.2125323387230532</v>
       </c>
       <c r="L373">
-        <v>0.4190762158783247</v>
+        <v>0.4190762158783261</v>
       </c>
       <c r="M373">
         <v>0</v>
@@ -16864,7 +16864,7 @@
         <v>-0.1560217386468719</v>
       </c>
       <c r="L374">
-        <v>0.09576597977436226</v>
+        <v>0.09576597977436252</v>
       </c>
       <c r="M374">
         <v>0</v>
@@ -16908,10 +16908,10 @@
         <v>-0.1278814265814783</v>
       </c>
       <c r="L375">
-        <v>0.1713254335992634</v>
+        <v>0.1713254335992627</v>
       </c>
       <c r="M375">
-        <v>0.100904223935895</v>
+        <v>0.1009042239358936</v>
       </c>
       <c r="N375">
         <v>0.5</v>
@@ -16952,10 +16952,10 @@
         <v>-0.02868767195140252</v>
       </c>
       <c r="L376">
-        <v>-0.6649335882411912</v>
+        <v>-0.664933588241191</v>
       </c>
       <c r="M376">
-        <v>0.635360950850853</v>
+        <v>0.6353609508508523</v>
       </c>
       <c r="N376">
         <v>0.5</v>
@@ -16996,7 +16996,7 @@
         <v>-0.2314513586187813</v>
       </c>
       <c r="L377">
-        <v>-0.9417593413226577</v>
+        <v>-0.941759341322658</v>
       </c>
       <c r="M377">
         <v>1</v>
@@ -17040,7 +17040,7 @@
         <v>0.0460253033496753</v>
       </c>
       <c r="L378">
-        <v>-1.404565042558925</v>
+        <v>-1.404565042558926</v>
       </c>
       <c r="M378">
         <v>1</v>
@@ -17084,10 +17084,10 @@
         <v>0.07108414615731738</v>
       </c>
       <c r="L379">
-        <v>-0.6234086384424514</v>
+        <v>-0.6234086384424516</v>
       </c>
       <c r="M379">
-        <v>0.362282998358965</v>
+        <v>0.3622829983589648</v>
       </c>
       <c r="N379">
         <v>0.5</v>
@@ -17128,7 +17128,7 @@
         <v>0.1491109221958136</v>
       </c>
       <c r="L380">
-        <v>-0.1171381229685181</v>
+        <v>-0.1171381229685178</v>
       </c>
       <c r="M380">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>0.1097617268453678</v>
       </c>
       <c r="L381">
-        <v>0.0565061853969964</v>
+        <v>0.05650618539699719</v>
       </c>
       <c r="M381">
         <v>0</v>
@@ -17216,10 +17216,10 @@
         <v>-0.03812636113976143</v>
       </c>
       <c r="L382">
-        <v>0.09825861988217743</v>
+        <v>0.09825861988217685</v>
       </c>
       <c r="M382">
-        <v>0.1151568827400124</v>
+        <v>0.1151568827400084</v>
       </c>
       <c r="N382">
         <v>0.5</v>
@@ -17304,10 +17304,10 @@
         <v>0.3439022332624882</v>
       </c>
       <c r="L384">
-        <v>0.2142586931667134</v>
+        <v>0.2142586931667137</v>
       </c>
       <c r="M384">
-        <v>0.6183140874600217</v>
+        <v>0.6183140874600216</v>
       </c>
       <c r="N384">
         <v>0.5</v>
@@ -17348,7 +17348,7 @@
         <v>0.3498281542771799</v>
       </c>
       <c r="L385">
-        <v>0.5400065635803265</v>
+        <v>0.5400065635803266</v>
       </c>
       <c r="M385">
         <v>1</v>
@@ -17392,10 +17392,10 @@
         <v>0.3383992134085338</v>
       </c>
       <c r="L386">
-        <v>0.3652076330859691</v>
+        <v>0.3652076330859692</v>
       </c>
       <c r="M386">
-        <v>0.6384719880651708</v>
+        <v>0.6384719880651701</v>
       </c>
       <c r="N386">
         <v>0.5</v>
@@ -17436,10 +17436,10 @@
         <v>0.3228283419195064</v>
       </c>
       <c r="L387">
-        <v>0.4263418881980958</v>
+        <v>0.4263418881980959</v>
       </c>
       <c r="M387">
-        <v>0.7649129545476132</v>
+        <v>0.764912954547613</v>
       </c>
       <c r="N387">
         <v>0.5</v>
@@ -17480,7 +17480,7 @@
         <v>0.08631142134365977</v>
       </c>
       <c r="L388">
-        <v>-0.007324376060742891</v>
+        <v>-0.007324376060743216</v>
       </c>
       <c r="M388">
         <v>0</v>
@@ -17524,10 +17524,10 @@
         <v>0.1016888558175407</v>
       </c>
       <c r="L389">
-        <v>0.2536016230440451</v>
+        <v>0.2536016230440454</v>
       </c>
       <c r="M389">
-        <v>0.4076427786625547</v>
+        <v>0.4076427786625543</v>
       </c>
       <c r="N389">
         <v>0.5</v>
@@ -17612,7 +17612,7 @@
         <v>-0.2352047330886528</v>
       </c>
       <c r="L391">
-        <v>-0.6637960737977396</v>
+        <v>-0.6637960737977397</v>
       </c>
       <c r="M391">
         <v>1</v>
@@ -17656,7 +17656,7 @@
         <v>-0.3059602613879377</v>
       </c>
       <c r="L392">
-        <v>-0.93993201233997</v>
+        <v>-0.9399320123399699</v>
       </c>
       <c r="M392">
         <v>1</v>
@@ -17700,10 +17700,10 @@
         <v>-0.2687320214335657</v>
       </c>
       <c r="L393">
-        <v>-0.6475623028272547</v>
+        <v>-0.6475623028272545</v>
       </c>
       <c r="M393">
-        <v>0.6865029856723386</v>
+        <v>0.6865029856723383</v>
       </c>
       <c r="N393">
         <v>0.5</v>
@@ -17879,7 +17879,7 @@
         <v>-1.057001253927569</v>
       </c>
       <c r="M397">
-        <v>0.595816300643018</v>
+        <v>0.5958163006430182</v>
       </c>
       <c r="N397">
         <v>0.5</v>
@@ -17920,10 +17920,10 @@
         <v>-0.6062808809213592</v>
       </c>
       <c r="L398">
-        <v>-0.9254388801389003</v>
+        <v>-0.9254388801388999</v>
       </c>
       <c r="M398">
-        <v>0.440689542851486</v>
+        <v>0.4406895428514856</v>
       </c>
       <c r="N398">
         <v>0.5</v>
@@ -17967,7 +17967,7 @@
         <v>-1.204726064218516</v>
       </c>
       <c r="M399">
-        <v>0.6258512828569491</v>
+        <v>0.625851282856949</v>
       </c>
       <c r="N399">
         <v>0.5</v>
@@ -18011,7 +18011,7 @@
         <v>-1.719109396872037</v>
       </c>
       <c r="M400">
-        <v>0.9554521188423749</v>
+        <v>0.955452118842375</v>
       </c>
       <c r="N400">
         <v>0.5</v>
@@ -18055,7 +18055,7 @@
         <v>-1.65814827562296</v>
       </c>
       <c r="M401">
-        <v>0.9010957281730876</v>
+        <v>0.9010957281730873</v>
       </c>
       <c r="N401">
         <v>0.5</v>
@@ -18096,10 +18096,10 @@
         <v>-0.4688349038107982</v>
       </c>
       <c r="L402">
-        <v>-1.294357196913404</v>
+        <v>-1.294357196913403</v>
       </c>
       <c r="M402">
-        <v>0.5767189845836246</v>
+        <v>0.576718984583624</v>
       </c>
       <c r="N402">
         <v>0.5</v>
@@ -18140,10 +18140,10 @@
         <v>-0.5220036190611551</v>
       </c>
       <c r="L403">
-        <v>-1.630732733950738</v>
+        <v>-1.630732733950739</v>
       </c>
       <c r="M403">
-        <v>0.836021422496993</v>
+        <v>0.8360214224969934</v>
       </c>
       <c r="N403">
         <v>0.5</v>
@@ -18184,10 +18184,10 @@
         <v>-0.5271694417621444</v>
       </c>
       <c r="L404">
-        <v>-1.662149702375338</v>
+        <v>-1.662149702375337</v>
       </c>
       <c r="M404">
-        <v>0.8732615862825173</v>
+        <v>0.8732615862825163</v>
       </c>
       <c r="N404">
         <v>0.5</v>
@@ -18272,10 +18272,10 @@
         <v>-0.574959135199153</v>
       </c>
       <c r="L406">
-        <v>-1.898632881544265</v>
+        <v>-1.898632881544264</v>
       </c>
       <c r="M406">
-        <v>0.9402152451600819</v>
+        <v>0.9402152451600817</v>
       </c>
       <c r="N406">
         <v>0.5</v>
@@ -18363,7 +18363,7 @@
         <v>-1.67085832720449</v>
       </c>
       <c r="M408">
-        <v>0.5621305883532119</v>
+        <v>0.5621305883532125</v>
       </c>
       <c r="N408">
         <v>0.5</v>
@@ -18404,7 +18404,7 @@
         <v>-0.5205709072064262</v>
       </c>
       <c r="L409">
-        <v>-2.171754764802719</v>
+        <v>-2.171754764802718</v>
       </c>
       <c r="M409">
         <v>1</v>
@@ -18495,7 +18495,7 @@
         <v>-2.146753938349341</v>
       </c>
       <c r="M411">
-        <v>0.839370487723312</v>
+        <v>0.8393704877233126</v>
       </c>
       <c r="N411">
         <v>0.5</v>
@@ -18536,7 +18536,7 @@
         <v>-0.5093363366121858</v>
       </c>
       <c r="L412">
-        <v>-2.643237758849881</v>
+        <v>-2.643237758849882</v>
       </c>
       <c r="M412">
         <v>1</v>
@@ -18624,10 +18624,10 @@
         <v>-0.450470691154802</v>
       </c>
       <c r="L414">
-        <v>-2.544442262548634</v>
+        <v>-2.544442262548633</v>
       </c>
       <c r="M414">
-        <v>0.5800485110652237</v>
+        <v>0.5800485110652229</v>
       </c>
       <c r="N414">
         <v>0.5</v>
@@ -18671,7 +18671,7 @@
         <v>-2.654889532005515</v>
       </c>
       <c r="M415">
-        <v>0.6533840791860422</v>
+        <v>0.6533840791860419</v>
       </c>
       <c r="N415">
         <v>0.5</v>
@@ -18715,7 +18715,7 @@
         <v>-2.195898722251784</v>
       </c>
       <c r="M416">
-        <v>0.3486200776761126</v>
+        <v>0.3486200776761124</v>
       </c>
       <c r="N416">
         <v>0.5</v>
@@ -18759,7 +18759,7 @@
         <v>-1.83253810819848</v>
       </c>
       <c r="M417">
-        <v>0.1073532976518967</v>
+        <v>0.1073532976518965</v>
       </c>
       <c r="N417">
         <v>0.5</v>
@@ -18803,7 +18803,7 @@
         <v>-1.861666905143008</v>
       </c>
       <c r="M418">
-        <v>0.02166719143601793</v>
+        <v>0.02166719143601842</v>
       </c>
       <c r="N418">
         <v>0.5</v>
@@ -18844,7 +18844,7 @@
         <v>-0.3730494014617286</v>
       </c>
       <c r="L419">
-        <v>-1.680387215065636</v>
+        <v>-1.680387215065635</v>
       </c>
       <c r="M419">
         <v>0</v>
@@ -18888,10 +18888,10 @@
         <v>-0.1969602444109528</v>
       </c>
       <c r="L420">
-        <v>-2.758200962570015</v>
+        <v>-2.758200962570014</v>
       </c>
       <c r="M420">
-        <v>0.7202113023140362</v>
+        <v>0.7202113023140356</v>
       </c>
       <c r="N420">
         <v>0.5</v>
@@ -18935,7 +18935,7 @@
         <v>-2.671382287418731</v>
       </c>
       <c r="M421">
-        <v>0.6621977621818332</v>
+        <v>0.6621977621818336</v>
       </c>
       <c r="N421">
         <v>0.5</v>
@@ -19023,7 +19023,7 @@
         <v>-2.746276218989228</v>
       </c>
       <c r="M423">
-        <v>0.9929467473587248</v>
+        <v>0.9929467473587253</v>
       </c>
       <c r="N423">
         <v>0.5</v>
@@ -19067,7 +19067,7 @@
         <v>-1.147840275211936</v>
       </c>
       <c r="M424">
-        <v>0.0475031438148297</v>
+        <v>0.04750314381482947</v>
       </c>
       <c r="N424">
         <v>0.5</v>
@@ -19111,7 +19111,7 @@
         <v>-2.01017716193306</v>
       </c>
       <c r="M425">
-        <v>0.5575585494282788</v>
+        <v>0.557558549428279</v>
       </c>
       <c r="N425">
         <v>0.5</v>
@@ -19152,7 +19152,7 @@
         <v>0.002768617761893829</v>
       </c>
       <c r="L426">
-        <v>-1.732883490421132</v>
+        <v>-1.732883490421131</v>
       </c>
       <c r="M426">
         <v>0.3935447651695075</v>
@@ -19199,7 +19199,7 @@
         <v>-1.196408211285083</v>
       </c>
       <c r="M427">
-        <v>0.07623012826262413</v>
+        <v>0.07623012826262392</v>
       </c>
       <c r="N427">
         <v>0.5</v>
@@ -19243,7 +19243,7 @@
         <v>-1.096513974702846</v>
       </c>
       <c r="M428">
-        <v>0.01714464074262136</v>
+        <v>0.01714464074262123</v>
       </c>
       <c r="N428">
         <v>0.5</v>
@@ -19287,7 +19287,7 @@
         <v>-1.396896157157217</v>
       </c>
       <c r="M429">
-        <v>0.1948148277311151</v>
+        <v>0.1948148277311149</v>
       </c>
       <c r="N429">
         <v>0.5</v>
@@ -19328,10 +19328,10 @@
         <v>-0.03757915781735508</v>
       </c>
       <c r="L430">
-        <v>-1.428854766880913</v>
+        <v>-1.428854766880912</v>
       </c>
       <c r="M430">
-        <v>0.2152358331449835</v>
+        <v>0.2152358331449831</v>
       </c>
       <c r="N430">
         <v>0.5</v>
@@ -19375,7 +19375,7 @@
         <v>-1.578634437689008</v>
       </c>
       <c r="M431">
-        <v>0.3044568780774368</v>
+        <v>0.3044568780774364</v>
       </c>
       <c r="N431">
         <v>0.5</v>
@@ -19419,7 +19419,7 @@
         <v>-1.639887687964524</v>
       </c>
       <c r="M432">
-        <v>0.3293648615996296</v>
+        <v>0.3293648615996293</v>
       </c>
       <c r="N432">
         <v>0.5</v>
@@ -19460,10 +19460,10 @@
         <v>-0.2160041216267416</v>
       </c>
       <c r="L433">
-        <v>-1.993434208790946</v>
+        <v>-1.993434208790947</v>
       </c>
       <c r="M433">
-        <v>0.9816749176544263</v>
+        <v>0.9816749176544267</v>
       </c>
       <c r="N433">
         <v>0.5</v>
@@ -19504,7 +19504,7 @@
         <v>-0.1375301271343104</v>
       </c>
       <c r="L434">
-        <v>-2.105672785361346</v>
+        <v>-2.105672785361347</v>
       </c>
       <c r="M434">
         <v>1</v>
@@ -19592,10 +19592,10 @@
         <v>-0.08540991121313424</v>
       </c>
       <c r="L436">
-        <v>-2.546936738956501</v>
+        <v>-2.5469367389565</v>
       </c>
       <c r="M436">
-        <v>0.985758157350256</v>
+        <v>0.9857581573502557</v>
       </c>
       <c r="N436">
         <v>0.5</v>
@@ -19636,7 +19636,7 @@
         <v>-0.1901135691874637</v>
       </c>
       <c r="L437">
-        <v>-2.789050895870568</v>
+        <v>-2.789050895870569</v>
       </c>
       <c r="M437">
         <v>1</v>
@@ -19683,7 +19683,7 @@
         <v>-2.760042667613503</v>
       </c>
       <c r="M438">
-        <v>0.9791630718551633</v>
+        <v>0.9791630718551623</v>
       </c>
       <c r="N438">
         <v>0.5</v>
@@ -19724,10 +19724,10 @@
         <v>-0.1303600806769165</v>
       </c>
       <c r="L439">
-        <v>-2.522199193877112</v>
+        <v>-2.522199193877113</v>
       </c>
       <c r="M439">
-        <v>0.8038138057401535</v>
+        <v>0.8038138057401537</v>
       </c>
       <c r="N439">
         <v>0.5</v>
@@ -19768,10 +19768,10 @@
         <v>-0.1163408886402957</v>
       </c>
       <c r="L440">
-        <v>-2.677871691996304</v>
+        <v>-2.677871691996303</v>
       </c>
       <c r="M440">
-        <v>0.9081479740937337</v>
+        <v>0.908147974093732</v>
       </c>
       <c r="N440">
         <v>0.5</v>
@@ -19815,7 +19815,7 @@
         <v>-2.708453236914233</v>
       </c>
       <c r="M441">
-        <v>0.9298640450705027</v>
+        <v>0.929864045070502</v>
       </c>
       <c r="N441">
         <v>0.5</v>
@@ -19856,10 +19856,10 @@
         <v>-0.0873963927413766</v>
       </c>
       <c r="L442">
-        <v>-2.607200954477268</v>
+        <v>-2.607200954477269</v>
       </c>
       <c r="M442">
-        <v>0.7714352346469816</v>
+        <v>0.7714352346469807</v>
       </c>
       <c r="N442">
         <v>0.5</v>
@@ -19903,7 +19903,7 @@
         <v>-2.390468577368753</v>
       </c>
       <c r="M443">
-        <v>0.4167470213454606</v>
+        <v>0.4167470213454584</v>
       </c>
       <c r="N443">
         <v>0.5</v>
@@ -19991,7 +19991,7 @@
         <v>-1.22351032527649</v>
       </c>
       <c r="M445">
-        <v>0.07285290621304577</v>
+        <v>0.07285290621304573</v>
       </c>
       <c r="N445">
         <v>0.5</v>
@@ -20035,7 +20035,7 @@
         <v>-1.297239626425962</v>
       </c>
       <c r="M446">
-        <v>0.1165169980747701</v>
+        <v>0.1165169980747699</v>
       </c>
       <c r="N446">
         <v>0.5</v>
@@ -20079,7 +20079,7 @@
         <v>-1.749529781132147</v>
       </c>
       <c r="M447">
-        <v>0.3910917240357185</v>
+        <v>0.3910917240357187</v>
       </c>
       <c r="N447">
         <v>0.5</v>
@@ -20123,7 +20123,7 @@
         <v>-1.819512638274826</v>
       </c>
       <c r="M448">
-        <v>0.4471622122523163</v>
+        <v>0.4471622122523162</v>
       </c>
       <c r="N448">
         <v>0.5</v>
@@ -20164,10 +20164,10 @@
         <v>-0.7795453808535751</v>
       </c>
       <c r="L449">
-        <v>-1.525541910782102</v>
+        <v>-1.525541910782101</v>
       </c>
       <c r="M449">
-        <v>0.2643399551764197</v>
+        <v>0.2643399551764192</v>
       </c>
       <c r="N449">
         <v>0.5</v>
@@ -20211,7 +20211,7 @@
         <v>-1.569645877458513</v>
       </c>
       <c r="M450">
-        <v>0.2917684913526319</v>
+        <v>0.2917684913526317</v>
       </c>
       <c r="N450">
         <v>0.5</v>
@@ -20255,7 +20255,7 @@
         <v>-1.458892137055013</v>
       </c>
       <c r="M451">
-        <v>0.2378684829494025</v>
+        <v>0.2378684829494024</v>
       </c>
       <c r="N451">
         <v>0.5</v>
@@ -20296,10 +20296,10 @@
         <v>-0.6950388889394603</v>
       </c>
       <c r="L452">
-        <v>-1.405601514602913</v>
+        <v>-1.405601514602914</v>
       </c>
       <c r="M452">
-        <v>0.2365220837229296</v>
+        <v>0.2365220837229302</v>
       </c>
       <c r="N452">
         <v>0.5</v>
@@ -20340,7 +20340,7 @@
         <v>-0.5894238010185507</v>
       </c>
       <c r="L453">
-        <v>-0.8429702050944695</v>
+        <v>-0.8429702050944694</v>
       </c>
       <c r="M453">
         <v>0</v>
@@ -20387,7 +20387,7 @@
         <v>-0.8431032085041</v>
       </c>
       <c r="M454">
-        <v>0.0001361982901217691</v>
+        <v>0.0001361982901218828</v>
       </c>
       <c r="N454">
         <v>0.5</v>
@@ -20428,7 +20428,7 @@
         <v>-0.2329289851997723</v>
       </c>
       <c r="L455">
-        <v>-0.6376910006340156</v>
+        <v>-0.6376910006340158</v>
       </c>
       <c r="M455">
         <v>0</v>
@@ -20516,7 +20516,7 @@
         <v>0.05007767679770809</v>
       </c>
       <c r="L457">
-        <v>0.6347280405969794</v>
+        <v>0.6347280405969791</v>
       </c>
       <c r="M457">
         <v>1</v>
@@ -20604,7 +20604,7 @@
         <v>0.1684788455112583</v>
       </c>
       <c r="L459">
-        <v>1.3169681562674</v>
+        <v>1.316968156267399</v>
       </c>
       <c r="M459">
         <v>1</v>
@@ -20648,7 +20648,7 @@
         <v>-0.05487650324155612</v>
       </c>
       <c r="L460">
-        <v>0.2420042838440632</v>
+        <v>0.2420042838440635</v>
       </c>
       <c r="M460">
         <v>0</v>
@@ -20692,10 +20692,10 @@
         <v>0.09836521495145673</v>
       </c>
       <c r="L461">
-        <v>0.8850532481000353</v>
+        <v>0.8850532481000357</v>
       </c>
       <c r="M461">
-        <v>0.5982051869392779</v>
+        <v>0.5982051869392784</v>
       </c>
       <c r="N461">
         <v>0.5</v>
@@ -20736,10 +20736,10 @@
         <v>0.09579740004446823</v>
       </c>
       <c r="L462">
-        <v>0.8036080229978743</v>
+        <v>0.8036080229978741</v>
       </c>
       <c r="M462">
-        <v>0.5224396405878871</v>
+        <v>0.5224396405878868</v>
       </c>
       <c r="N462">
         <v>0.5</v>
@@ -20780,10 +20780,10 @@
         <v>0.09601762966377422</v>
       </c>
       <c r="L463">
-        <v>0.7528245652054363</v>
+        <v>0.7528245652054366</v>
       </c>
       <c r="M463">
-        <v>0.4751976270698376</v>
+        <v>0.4751976270698379</v>
       </c>
       <c r="N463">
         <v>0.5</v>
@@ -20824,10 +20824,10 @@
         <v>0.2802253654779158</v>
       </c>
       <c r="L464">
-        <v>0.5763746311308582</v>
+        <v>0.576374631130858</v>
       </c>
       <c r="M464">
-        <v>0.3110526370835234</v>
+        <v>0.311052637083523</v>
       </c>
       <c r="N464">
         <v>0.5</v>
@@ -20871,7 +20871,7 @@
         <v>0.4730215384331671</v>
       </c>
       <c r="M465">
-        <v>0.2149069941004733</v>
+        <v>0.2149069941004731</v>
       </c>
       <c r="N465">
         <v>0.5</v>
@@ -20915,7 +20915,7 @@
         <v>0.5792751475981432</v>
       </c>
       <c r="M466">
-        <v>0.3137508826168792</v>
+        <v>0.3137508826168789</v>
       </c>
       <c r="N466">
         <v>0.5</v>
@@ -20956,10 +20956,10 @@
         <v>0.3442816480004293</v>
       </c>
       <c r="L467">
-        <v>0.7143612485959243</v>
+        <v>0.7143612485959238</v>
       </c>
       <c r="M467">
-        <v>0.4394165951707818</v>
+        <v>0.4394165951707811</v>
       </c>
       <c r="N467">
         <v>0.5</v>
@@ -21000,7 +21000,7 @@
         <v>0.3543987056264908</v>
       </c>
       <c r="L468">
-        <v>0.6894027227000449</v>
+        <v>0.689402722700045</v>
       </c>
       <c r="M468">
         <v>0.4161985814903644</v>
@@ -21176,7 +21176,7 @@
         <v>0.4533679369094718</v>
       </c>
       <c r="L472">
-        <v>1.975940755216354</v>
+        <v>1.975940755216353</v>
       </c>
       <c r="M472">
         <v>1</v>
@@ -21311,7 +21311,7 @@
         <v>1.490702117657285</v>
       </c>
       <c r="M475">
-        <v>0.5698130828591624</v>
+        <v>0.5698130828591622</v>
       </c>
       <c r="N475">
         <v>0.5</v>
@@ -21352,10 +21352,10 @@
         <v>0.3726960839560822</v>
       </c>
       <c r="L476">
-        <v>1.246529841495407</v>
+        <v>1.246529841495406</v>
       </c>
       <c r="M476">
-        <v>0.3740635485717428</v>
+        <v>0.3740635485717426</v>
       </c>
       <c r="N476">
         <v>0.5</v>
@@ -21396,7 +21396,7 @@
         <v>0.2687177171681277</v>
       </c>
       <c r="L477">
-        <v>0.528231333437881</v>
+        <v>0.5282313334378811</v>
       </c>
       <c r="M477">
         <v>0</v>
@@ -21484,7 +21484,7 @@
         <v>0.03878378102890302</v>
       </c>
       <c r="L479">
-        <v>-0.3420460354641022</v>
+        <v>-0.3420460354641019</v>
       </c>
       <c r="M479">
         <v>1</v>
@@ -21616,10 +21616,10 @@
         <v>0.1922216367905818</v>
       </c>
       <c r="L482">
-        <v>-0.8728821063622039</v>
+        <v>-0.872882106362204</v>
       </c>
       <c r="M482">
-        <v>0.8551082352397511</v>
+        <v>0.8551082352397513</v>
       </c>
       <c r="N482">
         <v>0.5</v>
@@ -21660,10 +21660,10 @@
         <v>0.2133713888434152</v>
       </c>
       <c r="L483">
-        <v>-0.6028379169070627</v>
+        <v>-0.6028379169070628</v>
       </c>
       <c r="M483">
-        <v>0.550652263826973</v>
+        <v>0.5506522638269731</v>
       </c>
       <c r="N483">
         <v>0.5</v>
@@ -21704,7 +21704,7 @@
         <v>0.3794676481740082</v>
       </c>
       <c r="L484">
-        <v>0.08346226943292552</v>
+        <v>0.08346226943292584</v>
       </c>
       <c r="M484">
         <v>0</v>
@@ -21748,10 +21748,10 @@
         <v>0.0371445441159801</v>
       </c>
       <c r="L485">
-        <v>0.2298949525584131</v>
+        <v>0.229894952558413</v>
       </c>
       <c r="M485">
-        <v>0.1259021286835612</v>
+        <v>0.1259021286835609</v>
       </c>
       <c r="N485">
         <v>0.5</v>
@@ -21792,10 +21792,10 @@
         <v>0.007028142471720528</v>
       </c>
       <c r="L486">
-        <v>-0.1822422914706525</v>
+        <v>-0.1822422914706526</v>
       </c>
       <c r="M486">
-        <v>0.0764600585713255</v>
+        <v>0.07646005857132564</v>
       </c>
       <c r="N486">
         <v>0.5</v>
@@ -21836,10 +21836,10 @@
         <v>-0.005634991325162294</v>
       </c>
       <c r="L487">
-        <v>-0.2232657003355089</v>
+        <v>-0.223265700335509</v>
       </c>
       <c r="M487">
-        <v>0.1227110881595337</v>
+        <v>0.1227110881595339</v>
       </c>
       <c r="N487">
         <v>0.5</v>
@@ -21880,10 +21880,10 @@
         <v>-0.004249689787377059</v>
       </c>
       <c r="L488">
-        <v>-0.3297648961927113</v>
+        <v>-0.3297648961927104</v>
       </c>
       <c r="M488">
-        <v>0.1800912235459582</v>
+        <v>0.180091223545957</v>
       </c>
       <c r="N488">
         <v>0.5</v>
@@ -21927,7 +21927,7 @@
         <v>-0.3230962007501241</v>
       </c>
       <c r="M489">
-        <v>0.1719502777975179</v>
+        <v>0.1719502777975177</v>
       </c>
       <c r="N489">
         <v>0.5</v>
@@ -21968,10 +21968,10 @@
         <v>-0.1462832957191761</v>
       </c>
       <c r="L490">
-        <v>-0.3637285696317064</v>
+        <v>-0.363728569631706</v>
       </c>
       <c r="M490">
-        <v>0.221553069459457</v>
+        <v>0.2215530694594563</v>
       </c>
       <c r="N490">
         <v>0.5</v>
@@ -22012,7 +22012,7 @@
         <v>-0.3049048236027517</v>
       </c>
       <c r="L491">
-        <v>-0.5431000370599188</v>
+        <v>-0.5431000370599189</v>
       </c>
       <c r="M491">
         <v>0.5224977445673771</v>
@@ -22056,10 +22056,10 @@
         <v>-0.1637487922475478</v>
       </c>
       <c r="L492">
-        <v>0.2099068482597587</v>
+        <v>0.2099068482597592</v>
       </c>
       <c r="M492">
-        <v>0.8634997059944242</v>
+        <v>0.8634997059944283</v>
       </c>
       <c r="N492">
         <v>0.5</v>
@@ -22100,7 +22100,7 @@
         <v>-0.1381729799717867</v>
       </c>
       <c r="L493">
-        <v>0.5907552563646791</v>
+        <v>0.590755256364679</v>
       </c>
       <c r="M493">
         <v>1</v>
@@ -22144,7 +22144,7 @@
         <v>-0.2846877758204592</v>
       </c>
       <c r="L494">
-        <v>0.6092783160127266</v>
+        <v>0.6092783160127271</v>
       </c>
       <c r="M494">
         <v>1</v>
@@ -22188,7 +22188,7 @@
         <v>-0.2836208197039837</v>
       </c>
       <c r="L495">
-        <v>0.08142877907565857</v>
+        <v>0.08142877907565847</v>
       </c>
       <c r="M495">
         <v>0</v>
@@ -22232,7 +22232,7 @@
         <v>-0.2908731159204498</v>
       </c>
       <c r="L496">
-        <v>-0.004911506615446077</v>
+        <v>-0.004911506615445922</v>
       </c>
       <c r="M496">
         <v>0</v>
@@ -22273,7 +22273,7 @@
         <v>-0.02662551731770075</v>
       </c>
       <c r="K497">
-        <v>-0.2163758968384931</v>
+        <v>-0.216375896838493</v>
       </c>
       <c r="L497">
         <v>0.07040864661687281</v>
@@ -22320,10 +22320,10 @@
         <v>-0.1219021612961109</v>
       </c>
       <c r="L498">
-        <v>0.09641294489156718</v>
+        <v>0.09641294489156728</v>
       </c>
       <c r="M498">
-        <v>0.04825711995230448</v>
+        <v>0.04825711995230462</v>
       </c>
       <c r="N498">
         <v>0.5</v>
@@ -22367,7 +22367,7 @@
         <v>0.1352751609585683</v>
       </c>
       <c r="M499">
-        <v>0.1203751445399027</v>
+        <v>0.1203751445399026</v>
       </c>
       <c r="N499">
         <v>0.5</v>
@@ -22408,7 +22408,7 @@
         <v>-0.05524037895141255</v>
       </c>
       <c r="L500">
-        <v>0.02710214164838054</v>
+        <v>0.02710214164838049</v>
       </c>
       <c r="M500">
         <v>0</v>
@@ -22452,7 +22452,7 @@
         <v>-0.06438553796745458</v>
       </c>
       <c r="L501">
-        <v>-0.3619201499947711</v>
+        <v>-0.3619201499947712</v>
       </c>
       <c r="M501">
         <v>1</v>
@@ -22496,7 +22496,7 @@
         <v>-0.09373051097502755</v>
       </c>
       <c r="L502">
-        <v>-0.8380230800819161</v>
+        <v>-0.8380230800819157</v>
       </c>
       <c r="M502">
         <v>1</v>
@@ -22540,7 +22540,7 @@
         <v>-0.09197420511815985</v>
       </c>
       <c r="L503">
-        <v>-1.235233647762159</v>
+        <v>-1.23523364776216</v>
       </c>
       <c r="M503">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         <v>0.01731826921984734</v>
       </c>
       <c r="K504">
-        <v>-0.09179377204861534</v>
+        <v>-0.09179377204861527</v>
       </c>
       <c r="L504">
         <v>-1.725814428320112</v>
@@ -22628,10 +22628,10 @@
         <v>0.4357662494431112</v>
       </c>
       <c r="L505">
-        <v>-0.2978188566152813</v>
+        <v>-0.2978188566152814</v>
       </c>
       <c r="M505">
-        <v>0.1702056207271074</v>
+        <v>0.1702056207271075</v>
       </c>
       <c r="N505">
         <v>0.5</v>
@@ -22672,7 +22672,7 @@
         <v>0.5168189855201819</v>
       </c>
       <c r="L506">
-        <v>0.4485796219488694</v>
+        <v>0.4485796219488696</v>
       </c>
       <c r="M506">
         <v>1</v>
@@ -22936,10 +22936,10 @@
         <v>0.6950629994866778</v>
       </c>
       <c r="L512">
-        <v>2.212701686216999</v>
+        <v>2.212701686217</v>
       </c>
       <c r="M512">
-        <v>0.8616902285818177</v>
+        <v>0.8616902285818178</v>
       </c>
       <c r="N512">
         <v>0.5</v>
@@ -22983,7 +22983,7 @@
         <v>1.901862131303077</v>
       </c>
       <c r="M513">
-        <v>0.7098598011124078</v>
+        <v>0.7098598011124074</v>
       </c>
       <c r="N513">
         <v>0.5</v>
@@ -23027,7 +23027,7 @@
         <v>1.701384997566825</v>
       </c>
       <c r="M514">
-        <v>0.6119361989458616</v>
+        <v>0.6119361989458615</v>
       </c>
       <c r="N514">
         <v>0.5</v>
@@ -23071,7 +23071,7 @@
         <v>2.281109312841437</v>
       </c>
       <c r="M515">
-        <v>0.8951041201807565</v>
+        <v>0.8951041201807564</v>
       </c>
       <c r="N515">
         <v>0.5</v>
@@ -23112,10 +23112,10 @@
         <v>0.8074480141280203</v>
       </c>
       <c r="L516">
-        <v>1.77298230268625</v>
+        <v>1.772982302686249</v>
       </c>
       <c r="M516">
-        <v>0.2985223827471872</v>
+        <v>0.2985223827471856</v>
       </c>
       <c r="N516">
         <v>0.5</v>
@@ -23156,7 +23156,7 @@
         <v>0.8092897605453404</v>
       </c>
       <c r="L517">
-        <v>1.404663078631113</v>
+        <v>1.404663078631112</v>
       </c>
       <c r="M517">
         <v>0</v>
@@ -23200,10 +23200,10 @@
         <v>0.6564431381469482</v>
       </c>
       <c r="L518">
-        <v>1.796252224628517</v>
+        <v>1.796252224628518</v>
       </c>
       <c r="M518">
-        <v>0.3588618168319729</v>
+        <v>0.3588618168319733</v>
       </c>
       <c r="N518">
         <v>0.5</v>
@@ -23244,7 +23244,7 @@
         <v>0.405971372751425</v>
       </c>
       <c r="L519">
-        <v>0.9831491179095315</v>
+        <v>0.9831491179095309</v>
       </c>
       <c r="M519">
         <v>0</v>
@@ -23288,7 +23288,7 @@
         <v>0.4216021419631016</v>
       </c>
       <c r="L520">
-        <v>0.9658520024391115</v>
+        <v>0.9658520024391113</v>
       </c>
       <c r="M520">
         <v>0</v>
@@ -23335,7 +23335,7 @@
         <v>1.054397378096216</v>
       </c>
       <c r="M521">
-        <v>0.06732171336878515</v>
+        <v>0.06732171336878513</v>
       </c>
       <c r="N521">
         <v>0.5</v>
@@ -23376,10 +23376,10 @@
         <v>0.5071886939091932</v>
       </c>
       <c r="L522">
-        <v>1.307303516980923</v>
+        <v>1.307303516980924</v>
       </c>
       <c r="M522">
-        <v>0.259608148034064</v>
+        <v>0.2596081480340643</v>
       </c>
       <c r="N522">
         <v>0.5</v>
@@ -23464,10 +23464,10 @@
         <v>0.3435144301934797</v>
       </c>
       <c r="L524">
-        <v>0.9957698238119315</v>
+        <v>0.9957698238119318</v>
       </c>
       <c r="M524">
-        <v>0.08935225550469461</v>
+        <v>0.08935225550469485</v>
       </c>
       <c r="N524">
         <v>0.5</v>
@@ -23508,7 +23508,7 @@
         <v>-0.01432866537582165</v>
       </c>
       <c r="L525">
-        <v>-0.4474248427929147</v>
+        <v>-0.4474248427929142</v>
       </c>
       <c r="M525">
         <v>1</v>
@@ -23552,7 +23552,7 @@
         <v>-0.1607548619183526</v>
       </c>
       <c r="L526">
-        <v>-1.496564096972457</v>
+        <v>-1.496564096972458</v>
       </c>
       <c r="M526">
         <v>1</v>
@@ -23596,10 +23596,10 @@
         <v>-0.1734954685489473</v>
       </c>
       <c r="L527">
-        <v>-0.6578194606180977</v>
+        <v>-0.6578194606180974</v>
       </c>
       <c r="M527">
-        <v>0.200540220935416</v>
+        <v>0.2005402209354159</v>
       </c>
       <c r="N527">
         <v>0.5</v>
@@ -23640,7 +23640,7 @@
         <v>-0.2048297193330632</v>
       </c>
       <c r="L528">
-        <v>-0.4276246263274575</v>
+        <v>-0.4276246263274576</v>
       </c>
       <c r="M528">
         <v>0</v>
@@ -23684,7 +23684,7 @@
         <v>-0.07482597014420375</v>
       </c>
       <c r="L529">
-        <v>0.4089759459325539</v>
+        <v>0.408975945932554</v>
       </c>
       <c r="M529">
         <v>0</v>
@@ -23728,10 +23728,10 @@
         <v>-0.06353156498055786</v>
       </c>
       <c r="L530">
-        <v>0.4758622864982948</v>
+        <v>0.4758622864982953</v>
       </c>
       <c r="M530">
-        <v>0.07445651533068606</v>
+        <v>0.07445651533068649</v>
       </c>
       <c r="N530">
         <v>0.5</v>
@@ -23772,7 +23772,7 @@
         <v>-0.1494777370411796</v>
       </c>
       <c r="L531">
-        <v>0.343567336774101</v>
+        <v>0.3435673367741008</v>
       </c>
       <c r="M531">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>-0.2745534867952652</v>
       </c>
       <c r="L534">
-        <v>0.03069868474235374</v>
+        <v>0.03069868474235397</v>
       </c>
       <c r="M534">
         <v>0</v>
@@ -23948,7 +23948,7 @@
         <v>-0.2909903509935338</v>
       </c>
       <c r="L535">
-        <v>0.001460167723062166</v>
+        <v>0.001460167723062212</v>
       </c>
       <c r="M535">
         <v>0</v>
@@ -23995,7 +23995,7 @@
         <v>-0.2025868679526936</v>
       </c>
       <c r="M536">
-        <v>0.1412836897159423</v>
+        <v>0.1412836897159422</v>
       </c>
       <c r="N536">
         <v>0.5</v>
@@ -24036,10 +24036,10 @@
         <v>-0.3672504077337875</v>
       </c>
       <c r="L537">
-        <v>-0.2698505553824966</v>
+        <v>-0.2698505553824965</v>
       </c>
       <c r="M537">
-        <v>0.4739754340466348</v>
+        <v>0.4739754340466342</v>
       </c>
       <c r="N537">
         <v>0.5</v>
@@ -24080,7 +24080,7 @@
         <v>-0.2465236363674776</v>
       </c>
       <c r="L538">
-        <v>-0.003459552872799114</v>
+        <v>-0.003459552872799044</v>
       </c>
       <c r="M538">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0.1806331795450015</v>
       </c>
       <c r="M539">
-        <v>0.3776817276544034</v>
+        <v>0.377681727654403</v>
       </c>
       <c r="N539">
         <v>0.5</v>
@@ -24168,7 +24168,7 @@
         <v>-0.181079015648208</v>
       </c>
       <c r="L540">
-        <v>0.04679081424222479</v>
+        <v>0.0467908142422248</v>
       </c>
       <c r="M540">
         <v>0.1325042285576885</v>
@@ -24212,7 +24212,7 @@
         <v>-0.2403538274570335</v>
       </c>
       <c r="L541">
-        <v>-0.4993756232911369</v>
+        <v>-0.499375623291137</v>
       </c>
       <c r="M541">
         <v>1</v>
@@ -24300,7 +24300,7 @@
         <v>-0.2114490858421194</v>
       </c>
       <c r="L543">
-        <v>-1.462351535013197</v>
+        <v>-1.462351535013198</v>
       </c>
       <c r="M543">
         <v>1</v>
@@ -24388,10 +24388,10 @@
         <v>0.08404019251072278</v>
       </c>
       <c r="L545">
-        <v>-1.7400256726536</v>
+        <v>-1.740025672653601</v>
       </c>
       <c r="M545">
-        <v>0.5914531742957273</v>
+        <v>0.5914531742957276</v>
       </c>
       <c r="N545">
         <v>0.5</v>
@@ -24432,10 +24432,10 @@
         <v>0.4581068416888147</v>
       </c>
       <c r="L546">
-        <v>-0.005827887251052416</v>
+        <v>-0.005827887251052042</v>
       </c>
       <c r="M546">
-        <v>0.0008066257137323541</v>
+        <v>0.0008066257137322504</v>
       </c>
       <c r="N546">
         <v>0.5</v>
@@ -24520,7 +24520,7 @@
         <v>0.4280546586059576</v>
       </c>
       <c r="L548">
-        <v>0.963815802345217</v>
+        <v>0.9638158023452166</v>
       </c>
       <c r="M548">
         <v>1</v>
@@ -24564,7 +24564,7 @@
         <v>0.184667208281607</v>
       </c>
       <c r="L549">
-        <v>1.113793848002142</v>
+        <v>1.113793848002143</v>
       </c>
       <c r="M549">
         <v>1</v>
@@ -24611,7 +24611,7 @@
         <v>1.054007635044118</v>
       </c>
       <c r="M550">
-        <v>0.8978704621279561</v>
+        <v>0.897870462127955</v>
       </c>
       <c r="N550">
         <v>0.5</v>
@@ -24655,7 +24655,7 @@
         <v>0.9813205353485153</v>
       </c>
       <c r="M551">
-        <v>0.7737030406794173</v>
+        <v>0.7737030406794168</v>
       </c>
       <c r="N551">
         <v>0.5</v>
@@ -24696,7 +24696,7 @@
         <v>0.6158665219107716</v>
       </c>
       <c r="L552">
-        <v>2.064935581705365</v>
+        <v>2.064935581705366</v>
       </c>
       <c r="M552">
         <v>1</v>
@@ -24743,7 +24743,7 @@
         <v>1.144344053183324</v>
       </c>
       <c r="M553">
-        <v>0.4008662677401925</v>
+        <v>0.4008662677401923</v>
       </c>
       <c r="N553">
         <v>0.5</v>
@@ -24787,7 +24787,7 @@
         <v>1.561647550991464</v>
       </c>
       <c r="M554">
-        <v>0.6724531707049176</v>
+        <v>0.6724531707049169</v>
       </c>
       <c r="N554">
         <v>0.5</v>
@@ -25007,7 +25007,7 @@
         <v>1.847640612348375</v>
       </c>
       <c r="M559">
-        <v>0.5987797577386518</v>
+        <v>0.5987797577386516</v>
       </c>
       <c r="N559">
         <v>0.5</v>
@@ -25092,10 +25092,10 @@
         <v>0.3165336307340624</v>
       </c>
       <c r="L561">
-        <v>1.672362837131722</v>
+        <v>1.672362837131721</v>
       </c>
       <c r="M561">
-        <v>0.4112982261494319</v>
+        <v>0.4112982261494314</v>
       </c>
       <c r="N561">
         <v>0.5</v>
@@ -25136,10 +25136,10 @@
         <v>0.2668771636497996</v>
       </c>
       <c r="L562">
-        <v>1.194205073766109</v>
+        <v>1.194205073766108</v>
       </c>
       <c r="M562">
-        <v>0.03883905259268898</v>
+        <v>0.03883905259268863</v>
       </c>
       <c r="N562">
         <v>0.5</v>
@@ -25180,7 +25180,7 @@
         <v>-0.1245880697613204</v>
       </c>
       <c r="L563">
-        <v>0.458331230076238</v>
+        <v>0.4583312300762381</v>
       </c>
       <c r="M563">
         <v>0</v>
@@ -25227,7 +25227,7 @@
         <v>1.461400995855031</v>
       </c>
       <c r="M564">
-        <v>0.5092245478749451</v>
+        <v>0.5092245478749452</v>
       </c>
       <c r="N564">
         <v>0.5</v>
@@ -25268,10 +25268,10 @@
         <v>-0.1203252912078593</v>
       </c>
       <c r="L565">
-        <v>0.5911186903309544</v>
+        <v>0.5911186903309541</v>
       </c>
       <c r="M565">
-        <v>0.06741169629329864</v>
+        <v>0.06741169629329843</v>
       </c>
       <c r="N565">
         <v>0.5</v>
@@ -25312,7 +25312,7 @@
         <v>-0.2873275554236575</v>
       </c>
       <c r="L566">
-        <v>-0.5380970678623888</v>
+        <v>-0.5380970678623885</v>
       </c>
       <c r="M566">
         <v>1</v>
@@ -25356,7 +25356,7 @@
         <v>-0.257192939868986</v>
       </c>
       <c r="L567">
-        <v>-0.02816706416572775</v>
+        <v>-0.02816706416572815</v>
       </c>
       <c r="M567">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>-0.1816184731354049</v>
       </c>
       <c r="L568">
-        <v>0.5035595138568024</v>
+        <v>0.5035595138568028</v>
       </c>
       <c r="M568">
-        <v>0.03255450827417297</v>
+        <v>0.03255450827417315</v>
       </c>
       <c r="N568">
         <v>0.5</v>
@@ -25444,10 +25444,10 @@
         <v>-0.1872778424682167</v>
       </c>
       <c r="L569">
-        <v>0.6763446145996429</v>
+        <v>0.676344614599643</v>
       </c>
       <c r="M569">
-        <v>0.1795780136665266</v>
+        <v>0.1795780136665267</v>
       </c>
       <c r="N569">
         <v>0.5</v>
@@ -25491,7 +25491,7 @@
         <v>1.073189638859345</v>
       </c>
       <c r="M570">
-        <v>0.5064599679364086</v>
+        <v>0.5064599679364089</v>
       </c>
       <c r="N570">
         <v>0.5</v>
@@ -25535,7 +25535,7 @@
         <v>1.234401616237788</v>
       </c>
       <c r="M571">
-        <v>0.7736953227366006</v>
+        <v>0.7736953227366002</v>
       </c>
       <c r="N571">
         <v>0.5</v>
@@ -25579,7 +25579,7 @@
         <v>1.25932795215571</v>
       </c>
       <c r="M572">
-        <v>0.7985453748150511</v>
+        <v>0.7985453748150509</v>
       </c>
       <c r="N572">
         <v>0.5</v>
@@ -25623,7 +25623,7 @@
         <v>1.239932081212573</v>
       </c>
       <c r="M573">
-        <v>0.7687833333544561</v>
+        <v>0.768783333354456</v>
       </c>
       <c r="N573">
         <v>0.5</v>
@@ -25667,7 +25667,7 @@
         <v>1.167657758943601</v>
       </c>
       <c r="M574">
-        <v>0.878705978489336</v>
+        <v>0.8787059784893362</v>
       </c>
       <c r="N574">
         <v>0.5</v>
@@ -25708,10 +25708,10 @@
         <v>-0.2075486428870685</v>
       </c>
       <c r="L575">
-        <v>0.5265965601329756</v>
+        <v>0.5265965601329753</v>
       </c>
       <c r="M575">
-        <v>0.03048161990996244</v>
+        <v>0.03048161990996158</v>
       </c>
       <c r="N575">
         <v>0.5</v>
@@ -25752,10 +25752,10 @@
         <v>-0.1599085536974134</v>
       </c>
       <c r="L576">
-        <v>0.6544346102882731</v>
+        <v>0.6544346102882728</v>
       </c>
       <c r="M576">
-        <v>0.1996313801765288</v>
+        <v>0.199631380176528</v>
       </c>
       <c r="N576">
         <v>0.5</v>
@@ -25796,7 +25796,7 @@
         <v>-0.1833258664092094</v>
       </c>
       <c r="L577">
-        <v>0.4999143540935529</v>
+        <v>0.4999143540935531</v>
       </c>
       <c r="M577">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>-0.2052731876854147</v>
       </c>
       <c r="L578">
-        <v>0.1796417299966897</v>
+        <v>0.1796417299966899</v>
       </c>
       <c r="M578">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>-0.1818851519122325</v>
       </c>
       <c r="L580">
-        <v>-0.2218644587266792</v>
+        <v>-0.2218644587266795</v>
       </c>
       <c r="M580">
         <v>1</v>
@@ -26016,7 +26016,7 @@
         <v>-0.2684294809741658</v>
       </c>
       <c r="L582">
-        <v>-2.345718467443164</v>
+        <v>-2.345718467443165</v>
       </c>
       <c r="M582">
         <v>1</v>
@@ -26060,10 +26060,10 @@
         <v>-0.02048453753112493</v>
       </c>
       <c r="L583">
-        <v>-0.9587531861355989</v>
+        <v>-0.9587531861355982</v>
       </c>
       <c r="M583">
-        <v>0.3769443742204064</v>
+        <v>0.3769443742204061</v>
       </c>
       <c r="N583">
         <v>0.5</v>
@@ -26104,10 +26104,10 @@
         <v>-0.0243624424969836</v>
       </c>
       <c r="L584">
-        <v>-0.8922291474697452</v>
+        <v>-0.8922291474697456</v>
       </c>
       <c r="M584">
-        <v>0.3470602977413875</v>
+        <v>0.3470602977413876</v>
       </c>
       <c r="N584">
         <v>0.5</v>
@@ -26148,7 +26148,7 @@
         <v>-0.01245160646921126</v>
       </c>
       <c r="L585">
-        <v>-0.6501050756272636</v>
+        <v>-0.6501050756272638</v>
       </c>
       <c r="M585">
         <v>0.2382927841408308</v>
@@ -26192,10 +26192,10 @@
         <v>0.2924432882772563</v>
       </c>
       <c r="L586">
-        <v>-0.2517216602117317</v>
+        <v>-0.2517216602117324</v>
       </c>
       <c r="M586">
-        <v>0.05933010098128507</v>
+        <v>0.05933010098128536</v>
       </c>
       <c r="N586">
         <v>0.5</v>
@@ -26236,7 +26236,7 @@
         <v>0.2616261957082235</v>
       </c>
       <c r="L587">
-        <v>0.348057240254984</v>
+        <v>0.3480572402549835</v>
       </c>
       <c r="M587">
         <v>1</v>
@@ -26280,7 +26280,7 @@
         <v>0.1937402144102038</v>
       </c>
       <c r="L588">
-        <v>0.9814729619414574</v>
+        <v>0.9814729619414577</v>
       </c>
       <c r="M588">
         <v>1</v>
@@ -26368,10 +26368,10 @@
         <v>-0.09218943458051843</v>
       </c>
       <c r="L590">
-        <v>0.9748865616055259</v>
+        <v>0.9748865616055257</v>
       </c>
       <c r="M590">
-        <v>0.8889894351850622</v>
+        <v>0.888989435185062</v>
       </c>
       <c r="N590">
         <v>0.5</v>
@@ -26412,7 +26412,7 @@
         <v>-0.1217863768499162</v>
       </c>
       <c r="L591">
-        <v>0.8158091359630284</v>
+        <v>0.8158091359630283</v>
       </c>
       <c r="M591">
         <v>0.6633807312592096</v>
@@ -26456,10 +26456,10 @@
         <v>-0.1956583780684056</v>
       </c>
       <c r="L592">
-        <v>0.5272085476630805</v>
+        <v>0.5272085476630803</v>
       </c>
       <c r="M592">
-        <v>0.2540781264702902</v>
+        <v>0.2540781264702905</v>
       </c>
       <c r="N592">
         <v>0.5</v>
@@ -26500,10 +26500,10 @@
         <v>-0.1848088990159941</v>
       </c>
       <c r="L593">
-        <v>0.6341526453268075</v>
+        <v>0.6341526453268072</v>
       </c>
       <c r="M593">
-        <v>0.405749673636613</v>
+        <v>0.4057496736366129</v>
       </c>
       <c r="N593">
         <v>0.5</v>
@@ -26544,10 +26544,10 @@
         <v>-0.1835220984265817</v>
       </c>
       <c r="L594">
-        <v>0.6178285661782361</v>
+        <v>0.617828566178236</v>
       </c>
       <c r="M594">
-        <v>0.3825983413553823</v>
+        <v>0.3825983413553825</v>
       </c>
       <c r="N594">
         <v>0.5</v>
@@ -26632,10 +26632,10 @@
         <v>0.30581155137729</v>
       </c>
       <c r="L596">
-        <v>1.55414553843559</v>
+        <v>1.554145538435589</v>
       </c>
       <c r="M596">
-        <v>0.6164493467083104</v>
+        <v>0.6164493467083106</v>
       </c>
       <c r="N596">
         <v>0.5</v>
@@ -26676,7 +26676,7 @@
         <v>-0.08733728124279622</v>
       </c>
       <c r="L597">
-        <v>0.5093053177703202</v>
+        <v>0.5093053177703204</v>
       </c>
       <c r="M597">
         <v>0</v>
@@ -26723,7 +26723,7 @@
         <v>0.722071340919338</v>
       </c>
       <c r="M598">
-        <v>0.1185154184282865</v>
+        <v>0.1185154184282864</v>
       </c>
       <c r="N598">
         <v>0.5</v>
@@ -26764,10 +26764,10 @@
         <v>-0.01183998211065479</v>
       </c>
       <c r="L599">
-        <v>0.5311568538449756</v>
+        <v>0.5311568538449757</v>
       </c>
       <c r="M599">
-        <v>0.01217179276493205</v>
+        <v>0.012171792764932</v>
       </c>
       <c r="N599">
         <v>0.5</v>
@@ -26808,7 +26808,7 @@
         <v>0.09035441748816921</v>
       </c>
       <c r="L600">
-        <v>0.6979910477692254</v>
+        <v>0.6979910477692255</v>
       </c>
       <c r="M600">
         <v>0.1051021582830678</v>
@@ -26852,10 +26852,10 @@
         <v>0.08237719739000327</v>
       </c>
       <c r="L601">
-        <v>0.6679549774999072</v>
+        <v>0.6679549774999071</v>
       </c>
       <c r="M601">
-        <v>0.08837139750075772</v>
+        <v>0.08837139750075759</v>
       </c>
       <c r="N601">
         <v>0.5</v>
@@ -26896,7 +26896,7 @@
         <v>0.1008354713379169</v>
       </c>
       <c r="L602">
-        <v>0.8547726416368358</v>
+        <v>0.8547726416368356</v>
       </c>
       <c r="M602">
         <v>0.1924330014509154</v>
@@ -26940,7 +26940,7 @@
         <v>0.2626753577936632</v>
       </c>
       <c r="L603">
-        <v>1.451696135629746</v>
+        <v>1.451696135629745</v>
       </c>
       <c r="M603">
         <v>0.5249326957780311</v>
@@ -27028,10 +27028,10 @@
         <v>0.2932449359437842</v>
       </c>
       <c r="L605">
-        <v>1.426750975578051</v>
+        <v>1.426750975578052</v>
       </c>
       <c r="M605">
-        <v>0.8780726848585293</v>
+        <v>0.8780726848585296</v>
       </c>
       <c r="N605">
         <v>0.5</v>
@@ -27075,7 +27075,7 @@
         <v>1.442999187688388</v>
       </c>
       <c r="M606">
-        <v>0.9907713999579154</v>
+        <v>0.9907713999579156</v>
       </c>
       <c r="N606">
         <v>0.5</v>
@@ -27160,7 +27160,7 @@
         <v>0.2152310285061447</v>
       </c>
       <c r="L608">
-        <v>1.454394759230047</v>
+        <v>1.454394759230046</v>
       </c>
       <c r="M608">
         <v>0.9639950808039824</v>
@@ -27207,7 +27207,7 @@
         <v>1.224171692256167</v>
       </c>
       <c r="M609">
-        <v>0.6775508774126749</v>
+        <v>0.6775508774126753</v>
       </c>
       <c r="N609">
         <v>0.5</v>
@@ -27248,10 +27248,10 @@
         <v>0.2320405011787576</v>
       </c>
       <c r="L610">
-        <v>1.294978462895806</v>
+        <v>1.294978462895805</v>
       </c>
       <c r="M610">
-        <v>0.7638035704743501</v>
+        <v>0.7638035704743498</v>
       </c>
       <c r="N610">
         <v>0.5</v>
@@ -27292,7 +27292,7 @@
         <v>0.2764628361109688</v>
       </c>
       <c r="L611">
-        <v>1.537113285159486</v>
+        <v>1.537113285159487</v>
       </c>
       <c r="M611">
         <v>1</v>
@@ -27336,7 +27336,7 @@
         <v>0.3534225620721684</v>
       </c>
       <c r="L612">
-        <v>1.994737438206662</v>
+        <v>1.994737438206663</v>
       </c>
       <c r="M612">
         <v>1</v>
@@ -27380,7 +27380,7 @@
         <v>0.3567074717665622</v>
       </c>
       <c r="L613">
-        <v>2.366593472083261</v>
+        <v>2.36659347208326</v>
       </c>
       <c r="M613">
         <v>1</v>
@@ -27424,7 +27424,7 @@
         <v>0.3482675465441918</v>
       </c>
       <c r="L614">
-        <v>2.422976274719257</v>
+        <v>2.422976274719256</v>
       </c>
       <c r="M614">
         <v>1</v>
@@ -27471,7 +27471,7 @@
         <v>1.988470021006453</v>
       </c>
       <c r="M615">
-        <v>0.6375503897223531</v>
+        <v>0.6375503897223537</v>
       </c>
       <c r="N615">
         <v>0.5</v>
@@ -27515,7 +27515,7 @@
         <v>1.484421621839503</v>
       </c>
       <c r="M616">
-        <v>0.2170912035126033</v>
+        <v>0.2170912035126027</v>
       </c>
       <c r="N616">
         <v>0.5</v>
@@ -27556,10 +27556,10 @@
         <v>0.850234903129322</v>
       </c>
       <c r="L617">
-        <v>1.859381153994059</v>
+        <v>1.859381153994058</v>
       </c>
       <c r="M617">
-        <v>0.529869063757478</v>
+        <v>0.5298690637574779</v>
       </c>
       <c r="N617">
         <v>0.5</v>
@@ -27600,10 +27600,10 @@
         <v>0.8406469436405481</v>
       </c>
       <c r="L618">
-        <v>1.263390854220321</v>
+        <v>1.263390854220322</v>
       </c>
       <c r="M618">
-        <v>0.03271522526513306</v>
+        <v>0.03271522526513364</v>
       </c>
       <c r="N618">
         <v>0.5</v>
@@ -27647,7 +27647,7 @@
         <v>1.292115991949225</v>
       </c>
       <c r="M619">
-        <v>0.02477190314840619</v>
+        <v>0.02477190314840584</v>
       </c>
       <c r="N619">
         <v>0.5</v>
@@ -27688,7 +27688,7 @@
         <v>0.8512412738130211</v>
       </c>
       <c r="L620">
-        <v>0.7395654544111024</v>
+        <v>0.7395654544111027</v>
       </c>
       <c r="M620">
         <v>0</v>
@@ -27732,10 +27732,10 @@
         <v>0.8200858947344297</v>
       </c>
       <c r="L621">
-        <v>0.9337063477814496</v>
+        <v>0.9337063477814495</v>
       </c>
       <c r="M621">
-        <v>0.115325915117267</v>
+        <v>0.1153259151172669</v>
       </c>
       <c r="N621">
         <v>0.5</v>
@@ -27820,10 +27820,10 @@
         <v>0.9111091839445451</v>
       </c>
       <c r="L623">
-        <v>1.480903347757927</v>
+        <v>1.480903347757928</v>
       </c>
       <c r="M623">
-        <v>0.4403784770797186</v>
+        <v>0.440378477079719</v>
       </c>
       <c r="N623">
         <v>0.5</v>
@@ -27911,7 +27911,7 @@
         <v>1.91005398155869</v>
       </c>
       <c r="M625">
-        <v>0.9164767258596582</v>
+        <v>0.9164767258596581</v>
       </c>
       <c r="N625">
         <v>0.5</v>
@@ -27952,7 +27952,7 @@
         <v>0.5414951322757156</v>
       </c>
       <c r="L626">
-        <v>2.155171840676592</v>
+        <v>2.155171840676593</v>
       </c>
       <c r="M626">
         <v>1</v>
@@ -27996,10 +27996,10 @@
         <v>0.514418790548793</v>
       </c>
       <c r="L627">
-        <v>1.962405436763517</v>
+        <v>1.962405436763516</v>
       </c>
       <c r="M627">
-        <v>0.8638276813503134</v>
+        <v>0.8638276813503131</v>
       </c>
       <c r="N627">
         <v>0.5</v>
@@ -28084,7 +28084,7 @@
         <v>0.5908831151978738</v>
       </c>
       <c r="L629">
-        <v>2.660888747134353</v>
+        <v>2.660888747134354</v>
       </c>
       <c r="M629">
         <v>1</v>
@@ -28128,10 +28128,10 @@
         <v>-0.3592599536380321</v>
       </c>
       <c r="L630">
-        <v>0.9585418877638</v>
+        <v>0.9585418877638001</v>
       </c>
       <c r="M630">
-        <v>0.01437922247914012</v>
+        <v>0.01437922247914024</v>
       </c>
       <c r="N630">
         <v>0.5</v>
@@ -28172,10 +28172,10 @@
         <v>-0.3602639195641129</v>
       </c>
       <c r="L631">
-        <v>0.9859768216430975</v>
+        <v>0.9859768216430979</v>
       </c>
       <c r="M631">
-        <v>0.01611594824420309</v>
+        <v>0.01611594824420322</v>
       </c>
       <c r="N631">
         <v>0.5</v>
@@ -28219,7 +28219,7 @@
         <v>1.651370421075955</v>
       </c>
       <c r="M632">
-        <v>0.4069843519248071</v>
+        <v>0.406984351924807</v>
       </c>
       <c r="N632">
         <v>0.5</v>
@@ -28263,7 +28263,7 @@
         <v>2.014345393897115</v>
       </c>
       <c r="M633">
-        <v>0.6202046899676487</v>
+        <v>0.6202046899676485</v>
       </c>
       <c r="N633">
         <v>0.5</v>
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="J634">
-        <v>-2.457397934955798e-06</v>
+        <v>-2.457397934955798E-06</v>
       </c>
       <c r="K634">
         <v>-0.1232853582396829</v>
@@ -28307,7 +28307,7 @@
         <v>2.144451389875561</v>
       </c>
       <c r="M634">
-        <v>0.6966321202896653</v>
+        <v>0.696632120289665</v>
       </c>
       <c r="N634">
         <v>0.5</v>
@@ -28351,7 +28351,7 @@
         <v>1.887816847963587</v>
       </c>
       <c r="M635">
-        <v>0.5458787409185156</v>
+        <v>0.5458787409185152</v>
       </c>
       <c r="N635">
         <v>0.5</v>
@@ -28395,7 +28395,7 @@
         <v>1.347659334441946</v>
       </c>
       <c r="M636">
-        <v>0.2285770637965183</v>
+        <v>0.2285770637965184</v>
       </c>
       <c r="N636">
         <v>0.5</v>
@@ -28436,7 +28436,7 @@
         <v>-0.287128251394234</v>
       </c>
       <c r="L637">
-        <v>0.6518638906784554</v>
+        <v>0.6518638906784553</v>
       </c>
       <c r="M637">
         <v>0</v>
@@ -28480,10 +28480,10 @@
         <v>-0.284532468823453</v>
       </c>
       <c r="L638">
-        <v>0.7472706204671467</v>
+        <v>0.7472706204671465</v>
       </c>
       <c r="M638">
-        <v>0.04748907385695435</v>
+        <v>0.04748907385695434</v>
       </c>
       <c r="N638">
         <v>0.5</v>
@@ -28524,10 +28524,10 @@
         <v>-0.3146222204898969</v>
       </c>
       <c r="L639">
-        <v>0.7344927415227315</v>
+        <v>0.7344927415227314</v>
       </c>
       <c r="M639">
-        <v>0.0553594686333122</v>
+        <v>0.05535946863331219</v>
       </c>
       <c r="N639">
         <v>0.5</v>
@@ -28568,7 +28568,7 @@
         <v>-0.4567465888466181</v>
       </c>
       <c r="L640">
-        <v>-0.01555892146738823</v>
+        <v>-0.01555892146738845</v>
       </c>
       <c r="M640">
         <v>1</v>
@@ -28612,7 +28612,7 @@
         <v>-0.4549825136539016</v>
       </c>
       <c r="L641">
-        <v>-0.008976212606594381</v>
+        <v>-0.008976212606594272</v>
       </c>
       <c r="M641">
         <v>0</v>
@@ -28656,7 +28656,7 @@
         <v>-0.5421818701700072</v>
       </c>
       <c r="L642">
-        <v>-0.5265188016190752</v>
+        <v>-0.5265188016190753</v>
       </c>
       <c r="M642">
         <v>1</v>
@@ -28744,10 +28744,10 @@
         <v>-0.649567246822165</v>
       </c>
       <c r="L644">
-        <v>-0.719428406784826</v>
+        <v>-0.7194284067848258</v>
       </c>
       <c r="M644">
-        <v>0.6362189194745304</v>
+        <v>0.63621891947453</v>
       </c>
       <c r="N644">
         <v>0.5</v>
@@ -28791,7 +28791,7 @@
         <v>-1.04800275278387</v>
       </c>
       <c r="M645">
-        <v>0.9304613992523025</v>
+        <v>0.9304613992523023</v>
       </c>
       <c r="N645">
         <v>0.5</v>
@@ -28832,10 +28832,10 @@
         <v>-0.6169552747915404</v>
       </c>
       <c r="L646">
-        <v>-0.9595622214337767</v>
+        <v>-0.9595622214337765</v>
       </c>
       <c r="M646">
-        <v>0.8512617856056822</v>
+        <v>0.8512617856056818</v>
       </c>
       <c r="N646">
         <v>0.5</v>
@@ -28876,10 +28876,10 @@
         <v>-0.5633413079814305</v>
       </c>
       <c r="L647">
-        <v>-0.8354948651657358</v>
+        <v>-0.8354948651657357</v>
       </c>
       <c r="M647">
-        <v>0.7401578999484407</v>
+        <v>0.7401578999484405</v>
       </c>
       <c r="N647">
         <v>0.5</v>
@@ -28920,7 +28920,7 @@
         <v>-0.5515910330141636</v>
       </c>
       <c r="L648">
-        <v>-1.139161258432888</v>
+        <v>-1.139161258432887</v>
       </c>
       <c r="M648">
         <v>1</v>
@@ -29008,10 +29008,10 @@
         <v>-0.3949003582424064</v>
       </c>
       <c r="L650">
-        <v>-0.3780538692700474</v>
+        <v>-0.3780538692700476</v>
       </c>
       <c r="M650">
-        <v>0.2150709397878471</v>
+        <v>0.2150709397878473</v>
       </c>
       <c r="N650">
         <v>0.5</v>
@@ -29055,7 +29055,7 @@
         <v>-0.3950966121275193</v>
       </c>
       <c r="M651">
-        <v>0.01265240431255449</v>
+        <v>0.01265240431255429</v>
       </c>
       <c r="N651">
         <v>0.5</v>
@@ -29096,10 +29096,10 @@
         <v>-0.4948967106294657</v>
       </c>
       <c r="L652">
-        <v>-0.657813868759977</v>
+        <v>-0.6578138687599772</v>
       </c>
       <c r="M652">
-        <v>0.2076917227249469</v>
+        <v>0.2076917227249468</v>
       </c>
       <c r="N652">
         <v>0.5</v>
@@ -29140,10 +29140,10 @@
         <v>-0.6421181890693825</v>
       </c>
       <c r="L653">
-        <v>-0.900973703057471</v>
+        <v>-0.9009737030574716</v>
       </c>
       <c r="M653">
-        <v>0.388211757665028</v>
+        <v>0.3882117576650282</v>
       </c>
       <c r="N653">
         <v>0.5</v>
@@ -29184,7 +29184,7 @@
         <v>-0.6535127510775518</v>
       </c>
       <c r="L654">
-        <v>-1.193655389916229</v>
+        <v>-1.19365538991623</v>
       </c>
       <c r="M654">
         <v>0.6054964440553963</v>
@@ -29228,10 +29228,10 @@
         <v>-0.6510074238528587</v>
       </c>
       <c r="L655">
-        <v>-1.465721862406102</v>
+        <v>-1.465721862406101</v>
       </c>
       <c r="M655">
-        <v>0.8074765501111049</v>
+        <v>0.8074765501111045</v>
       </c>
       <c r="N655">
         <v>0.5</v>
@@ -29275,7 +29275,7 @@
         <v>-1.662127859762935</v>
       </c>
       <c r="M656">
-        <v>0.9532868876108387</v>
+        <v>0.9532868876108384</v>
       </c>
       <c r="N656">
         <v>0.5</v>
@@ -29316,10 +29316,10 @@
         <v>-0.4657460535356555</v>
       </c>
       <c r="L657">
-        <v>-1.365042365163948</v>
+        <v>-1.365042365163947</v>
       </c>
       <c r="M657">
-        <v>0.7327328474251277</v>
+        <v>0.732732847425127</v>
       </c>
       <c r="N657">
         <v>0.5</v>
@@ -29404,7 +29404,7 @@
         <v>-0.4474978401472406</v>
       </c>
       <c r="L659">
-        <v>-1.850493186236142</v>
+        <v>-1.850493186236141</v>
       </c>
       <c r="M659">
         <v>1</v>
@@ -29451,7 +29451,7 @@
         <v>-1.264181271119956</v>
       </c>
       <c r="M660">
-        <v>0.5971462860730721</v>
+        <v>0.5971462860730726</v>
       </c>
       <c r="N660">
         <v>0.5</v>
@@ -29495,7 +29495,7 @@
         <v>-1.319870269340175</v>
       </c>
       <c r="M661">
-        <v>0.55510009344438</v>
+        <v>0.5551000934443798</v>
       </c>
       <c r="N661">
         <v>0.5</v>
@@ -29536,7 +29536,7 @@
         <v>-0.3225245394173356</v>
       </c>
       <c r="L662">
-        <v>-0.8275044106285389</v>
+        <v>-0.8275044106285393</v>
       </c>
       <c r="M662">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>-0.07451394616586617</v>
       </c>
       <c r="L663">
-        <v>-0.4241869857306195</v>
+        <v>-0.4241869857306189</v>
       </c>
       <c r="M663">
         <v>0</v>
@@ -29624,7 +29624,7 @@
         <v>-0.09175863955230423</v>
       </c>
       <c r="L664">
-        <v>-0.02107801634367509</v>
+        <v>-0.02107801634367346</v>
       </c>
       <c r="M664">
         <v>0</v>
@@ -29668,10 +29668,10 @@
         <v>0.08320486711173734</v>
       </c>
       <c r="L665">
-        <v>-0.3442547515942496</v>
+        <v>-0.3442547515942497</v>
       </c>
       <c r="M665">
-        <v>0.1766557644045178</v>
+        <v>0.1766557644045186</v>
       </c>
       <c r="N665">
         <v>0.5</v>
@@ -29712,7 +29712,7 @@
         <v>0.02026165952479082</v>
       </c>
       <c r="L666">
-        <v>0.4980777076748588</v>
+        <v>0.498077707674859</v>
       </c>
       <c r="M666">
         <v>1</v>
@@ -29759,7 +29759,7 @@
         <v>-0.111426246798602</v>
       </c>
       <c r="M667">
-        <v>0.04938640060595845</v>
+        <v>0.04938640060595932</v>
       </c>
       <c r="N667">
         <v>0.5</v>
@@ -29800,7 +29800,7 @@
         <v>-0.1266247681715495</v>
       </c>
       <c r="L668">
-        <v>0.1235518155487711</v>
+        <v>0.1235518155487708</v>
       </c>
       <c r="M668">
         <v>0</v>
@@ -29844,10 +29844,10 @@
         <v>-0.1510405991468385</v>
       </c>
       <c r="L669">
-        <v>-0.2223456369964033</v>
+        <v>-0.2223456369964031</v>
       </c>
       <c r="M669">
-        <v>0.1549652149436331</v>
+        <v>0.1549652149436341</v>
       </c>
       <c r="N669">
         <v>0.5</v>
@@ -29888,10 +29888,10 @@
         <v>-0.2832097151573104</v>
       </c>
       <c r="L670">
-        <v>-0.4682563388359163</v>
+        <v>-0.4682563388359162</v>
       </c>
       <c r="M670">
-        <v>0.3443031951111016</v>
+        <v>0.3443031951111024</v>
       </c>
       <c r="N670">
         <v>0.5</v>
@@ -29935,7 +29935,7 @@
         <v>-0.5340085620388881</v>
       </c>
       <c r="M671">
-        <v>0.636053766754594</v>
+        <v>0.6360537667545945</v>
       </c>
       <c r="N671">
         <v>0.5</v>
@@ -29976,10 +29976,10 @@
         <v>-0.2595674909638092</v>
       </c>
       <c r="L672">
-        <v>-0.5303443964843814</v>
+        <v>-0.5303443964843821</v>
       </c>
       <c r="M672">
-        <v>0.9928564099267271</v>
+        <v>0.9928564099267286</v>
       </c>
       <c r="N672">
         <v>0.5</v>
@@ -30064,7 +30064,7 @@
         <v>0.09732635436233023</v>
       </c>
       <c r="L674">
-        <v>-1.519248523406716</v>
+        <v>-1.519248523406715</v>
       </c>
       <c r="M674">
         <v>1</v>
@@ -30111,7 +30111,7 @@
         <v>-1.239841892822974</v>
       </c>
       <c r="M675">
-        <v>0.801532739447112</v>
+        <v>0.8015327394471129</v>
       </c>
       <c r="N675">
         <v>0.5</v>
@@ -30152,7 +30152,7 @@
         <v>0.1183309980962513</v>
       </c>
       <c r="L676">
-        <v>0.1084725977979971</v>
+        <v>0.108472597797997</v>
       </c>
       <c r="M676">
         <v>0</v>
@@ -30196,7 +30196,7 @@
         <v>0.09122280002144226</v>
       </c>
       <c r="L677">
-        <v>0.2500609372217852</v>
+        <v>0.2500609372217849</v>
       </c>
       <c r="M677">
         <v>1</v>
@@ -30240,7 +30240,7 @@
         <v>0.1074033443345756</v>
       </c>
       <c r="L678">
-        <v>0.4945040899497435</v>
+        <v>0.4945040899497437</v>
       </c>
       <c r="M678">
         <v>1</v>
@@ -30284,7 +30284,7 @@
         <v>0.08225504720752068</v>
       </c>
       <c r="L679">
-        <v>0.6176899617433262</v>
+        <v>0.6176899617433267</v>
       </c>
       <c r="M679">
         <v>1</v>
@@ -30328,7 +30328,7 @@
         <v>0.07996497811784763</v>
       </c>
       <c r="L680">
-        <v>0.6181400027287117</v>
+        <v>0.6181400027287114</v>
       </c>
       <c r="M680">
         <v>1</v>
@@ -30416,7 +30416,7 @@
         <v>0.1209231303338816</v>
       </c>
       <c r="L682">
-        <v>0.7856620045120297</v>
+        <v>0.7856620045120296</v>
       </c>
       <c r="M682">
         <v>1</v>
@@ -30460,10 +30460,10 @@
         <v>0.07788128823789273</v>
       </c>
       <c r="L683">
-        <v>0.6378231940933348</v>
+        <v>0.637823194093335</v>
       </c>
       <c r="M683">
-        <v>0.7816876505259257</v>
+        <v>0.7816876505259261</v>
       </c>
       <c r="N683">
         <v>0.5</v>
@@ -30504,7 +30504,7 @@
         <v>0.06127911254649241</v>
       </c>
       <c r="L684">
-        <v>0.306249938426531</v>
+        <v>0.3062499384265309</v>
       </c>
       <c r="M684">
         <v>0.2920561642985836</v>
@@ -30548,10 +30548,10 @@
         <v>0.0628231003525538</v>
       </c>
       <c r="L685">
-        <v>0.2052085515648185</v>
+        <v>0.2052085515648187</v>
       </c>
       <c r="M685">
-        <v>0.1428491834156402</v>
+        <v>0.1428491834156406</v>
       </c>
       <c r="N685">
         <v>0.5</v>
@@ -30636,10 +30636,10 @@
         <v>0.1859570541896903</v>
       </c>
       <c r="L687">
-        <v>0.5915682212610317</v>
+        <v>0.5915682212610319</v>
       </c>
       <c r="M687">
-        <v>0.7104875297106833</v>
+        <v>0.7104875297106837</v>
       </c>
       <c r="N687">
         <v>0.5</v>
@@ -30680,7 +30680,7 @@
         <v>0.04489817124159517</v>
       </c>
       <c r="L688">
-        <v>-0.2339960921702006</v>
+        <v>-0.2339960921702004</v>
       </c>
       <c r="M688">
         <v>1</v>
@@ -30724,7 +30724,7 @@
         <v>0.1532725583428569</v>
       </c>
       <c r="L689">
-        <v>0.1005972391511216</v>
+        <v>0.1005972391511212</v>
       </c>
       <c r="M689">
         <v>0</v>
@@ -30768,10 +30768,10 @@
         <v>0.2622779705953927</v>
       </c>
       <c r="L690">
-        <v>0.2175904185384931</v>
+        <v>0.2175904185384929</v>
       </c>
       <c r="M690">
-        <v>0.1707768160076614</v>
+        <v>0.1707768160076616</v>
       </c>
       <c r="N690">
         <v>0.5</v>
@@ -30815,7 +30815,7 @@
         <v>0.1303909385671627</v>
       </c>
       <c r="M691">
-        <v>0.0434903397788166</v>
+        <v>0.04349033977881711</v>
       </c>
       <c r="N691">
         <v>0.5</v>
@@ -30856,7 +30856,7 @@
         <v>0.4052542743412138</v>
       </c>
       <c r="L692">
-        <v>-0.1518864780038556</v>
+        <v>-0.1518864780038562</v>
       </c>
       <c r="M692">
         <v>0</v>
@@ -30900,10 +30900,10 @@
         <v>0.6149297559141852</v>
       </c>
       <c r="L693">
-        <v>0.4878486107467965</v>
+        <v>0.4878486107467964</v>
       </c>
       <c r="M693">
-        <v>0.7887459457002772</v>
+        <v>0.7887459457002767</v>
       </c>
       <c r="N693">
         <v>0.5</v>
@@ -30944,7 +30944,7 @@
         <v>0.6942744021093911</v>
       </c>
       <c r="L694">
-        <v>1.3308594636973</v>
+        <v>1.330859463697301</v>
       </c>
       <c r="M694">
         <v>1</v>
@@ -31076,10 +31076,10 @@
         <v>0.5336050337215116</v>
       </c>
       <c r="L697">
-        <v>1.251461422862485</v>
+        <v>1.251461422862486</v>
       </c>
       <c r="M697">
-        <v>0.8206019868805665</v>
+        <v>0.8206019868805671</v>
       </c>
       <c r="N697">
         <v>0.5</v>
@@ -31120,10 +31120,10 @@
         <v>0.5037362929651613</v>
       </c>
       <c r="L698">
-        <v>1.049635322175641</v>
+        <v>1.04963532217564</v>
       </c>
       <c r="M698">
-        <v>0.676693694684101</v>
+        <v>0.6766936946841006</v>
       </c>
       <c r="N698">
         <v>0.5</v>
@@ -31167,7 +31167,7 @@
         <v>0.954266910024379</v>
       </c>
       <c r="M699">
-        <v>0.6001997577923515</v>
+        <v>0.6001997577923514</v>
       </c>
       <c r="N699">
         <v>0.5</v>
@@ -31208,10 +31208,10 @@
         <v>0.4960905019589505</v>
       </c>
       <c r="L700">
-        <v>0.9593943697995174</v>
+        <v>0.9593943697995178</v>
       </c>
       <c r="M700">
-        <v>0.6039351502807194</v>
+        <v>0.6039351502807195</v>
       </c>
       <c r="N700">
         <v>0.5</v>
@@ -31252,10 +31252,10 @@
         <v>0.5128619827939034</v>
       </c>
       <c r="L701">
-        <v>0.9517064258329204</v>
+        <v>0.9517064258329208</v>
       </c>
       <c r="M701">
-        <v>0.4569073656011054</v>
+        <v>0.4569073656011057</v>
       </c>
       <c r="N701">
         <v>0.5</v>
@@ -31296,7 +31296,7 @@
         <v>0.5047625634706744</v>
       </c>
       <c r="L702">
-        <v>0.4609144608728079</v>
+        <v>0.4609144608728077</v>
       </c>
       <c r="M702">
         <v>0</v>
@@ -31384,10 +31384,10 @@
         <v>0.4996913519845316</v>
       </c>
       <c r="L704">
-        <v>0.4285204776548506</v>
+        <v>0.4285204776548509</v>
       </c>
       <c r="M704">
-        <v>0.1838203303165923</v>
+        <v>0.1838203303165925</v>
       </c>
       <c r="N704">
         <v>0.5</v>
@@ -31428,10 +31428,10 @@
         <v>0.5253980647089658</v>
       </c>
       <c r="L705">
-        <v>0.365318107407581</v>
+        <v>0.3653181074075811</v>
       </c>
       <c r="M705">
-        <v>0.1664482969766603</v>
+        <v>0.1664482969766605</v>
       </c>
       <c r="N705">
         <v>0.5</v>
@@ -31472,7 +31472,7 @@
         <v>0.5106816859522714</v>
       </c>
       <c r="L706">
-        <v>-0.04070822589498173</v>
+        <v>-0.04070822589498117</v>
       </c>
       <c r="M706">
         <v>1</v>
@@ -31516,7 +31516,7 @@
         <v>0.5459226079015385</v>
       </c>
       <c r="L707">
-        <v>-0.06436170337661699</v>
+        <v>-0.06436170337661641</v>
       </c>
       <c r="M707">
         <v>1</v>
@@ -31560,10 +31560,10 @@
         <v>0.03903427675229969</v>
       </c>
       <c r="L708">
-        <v>0.8090504155647984</v>
+        <v>0.8090504155647983</v>
       </c>
       <c r="M708">
-        <v>0.805476252365791</v>
+        <v>0.8054762523657907</v>
       </c>
       <c r="N708">
         <v>0.5</v>
@@ -31604,7 +31604,7 @@
         <v>0.1896707439692321</v>
       </c>
       <c r="L709">
-        <v>1.695104016043733</v>
+        <v>1.695104016043734</v>
       </c>
       <c r="M709">
         <v>1</v>
@@ -31651,7 +31651,7 @@
         <v>1.064410164342904</v>
       </c>
       <c r="M710">
-        <v>0.5819320997741079</v>
+        <v>0.5819320997741076</v>
       </c>
       <c r="N710">
         <v>0.5</v>
@@ -31692,7 +31692,7 @@
         <v>-0.07244626064027199</v>
       </c>
       <c r="L711">
-        <v>0.04525428198393013</v>
+        <v>0.04525428198392974</v>
       </c>
       <c r="M711">
         <v>0</v>
@@ -31736,7 +31736,7 @@
         <v>0.01189282195969963</v>
       </c>
       <c r="L712">
-        <v>0.836436394895549</v>
+        <v>0.8364363948955493</v>
       </c>
       <c r="M712">
         <v>0.4795479834183133</v>
@@ -31780,10 +31780,10 @@
         <v>0.02348525998133699</v>
       </c>
       <c r="L713">
-        <v>1.160721254118248</v>
+        <v>1.160721254118247</v>
       </c>
       <c r="M713">
-        <v>0.6761021619765799</v>
+        <v>0.6761021619765792</v>
       </c>
       <c r="N713">
         <v>0.5</v>
@@ -31827,7 +31827,7 @@
         <v>1.319666098159018</v>
       </c>
       <c r="M714">
-        <v>0.7724411441029416</v>
+        <v>0.772441144102941</v>
       </c>
       <c r="N714">
         <v>0.5</v>
@@ -31871,7 +31871,7 @@
         <v>1.3796759246901</v>
       </c>
       <c r="M715">
-        <v>0.8088140484300621</v>
+        <v>0.8088140484300618</v>
       </c>
       <c r="N715">
         <v>0.5</v>
@@ -31912,10 +31912,10 @@
         <v>-0.02665242146474925</v>
       </c>
       <c r="L716">
-        <v>0.883191629407229</v>
+        <v>0.8831916294072284</v>
       </c>
       <c r="M716">
-        <v>0.5078870700311462</v>
+        <v>0.5078870700311456</v>
       </c>
       <c r="N716">
         <v>0.5</v>
@@ -31956,10 +31956,10 @@
         <v>-0.008000433941943602</v>
       </c>
       <c r="L717">
-        <v>1.071111933552287</v>
+        <v>1.071111933552288</v>
       </c>
       <c r="M717">
-        <v>0.6217885364893314</v>
+        <v>0.6217885364893313</v>
       </c>
       <c r="N717">
         <v>0.5</v>
@@ -32003,7 +32003,7 @@
         <v>0.9774608986872695</v>
       </c>
       <c r="M718">
-        <v>0.5650251640853672</v>
+        <v>0.565025164085367</v>
       </c>
       <c r="N718">
         <v>0.5</v>
@@ -32088,7 +32088,7 @@
         <v>-0.02604656540076842</v>
       </c>
       <c r="L720">
-        <v>0.7755556599928179</v>
+        <v>0.7755556599928178</v>
       </c>
       <c r="M720">
         <v>0.5472793265911491</v>
@@ -32132,10 +32132,10 @@
         <v>-0.03963851506287544</v>
       </c>
       <c r="L721">
-        <v>0.7386826030584267</v>
+        <v>0.7386826030584265</v>
       </c>
       <c r="M721">
-        <v>0.04755969997647611</v>
+        <v>0.04755969997647579</v>
       </c>
       <c r="N721">
         <v>0.5</v>
@@ -32176,7 +32176,7 @@
         <v>-0.08740519709748934</v>
       </c>
       <c r="L722">
-        <v>0.6714259805594082</v>
+        <v>0.6714259805594079</v>
       </c>
       <c r="M722">
         <v>0</v>
@@ -32264,7 +32264,7 @@
         <v>-0.09240711954313861</v>
       </c>
       <c r="L724">
-        <v>0.556548344820647</v>
+        <v>0.5565483448206469</v>
       </c>
       <c r="M724">
         <v>0</v>
@@ -32308,7 +32308,7 @@
         <v>-0.1880173541448481</v>
       </c>
       <c r="L725">
-        <v>0.119684882709454</v>
+        <v>0.1196848827094542</v>
       </c>
       <c r="M725">
         <v>0</v>
@@ -32352,7 +32352,7 @@
         <v>-0.2762303954128658</v>
       </c>
       <c r="L726">
-        <v>-0.4025407969912733</v>
+        <v>-0.4025407969912734</v>
       </c>
       <c r="M726">
         <v>1</v>
@@ -32396,7 +32396,7 @@
         <v>-0.2928301633815371</v>
       </c>
       <c r="L727">
-        <v>-0.718580694443185</v>
+        <v>-0.7185806944431854</v>
       </c>
       <c r="M727">
         <v>1</v>
@@ -32440,7 +32440,7 @@
         <v>-0.1590210495147824</v>
       </c>
       <c r="L728">
-        <v>-0.3288009640517413</v>
+        <v>-0.3288009640517408</v>
       </c>
       <c r="M728">
         <v>0</v>
@@ -32484,10 +32484,10 @@
         <v>-0.2786490615987035</v>
       </c>
       <c r="L729">
-        <v>-0.7109992426600006</v>
+        <v>-0.7109992426600005</v>
       </c>
       <c r="M729">
-        <v>0.9805493944603775</v>
+        <v>0.9805493944603761</v>
       </c>
       <c r="N729">
         <v>0.5</v>
@@ -32528,7 +32528,7 @@
         <v>-0.01671616569024259</v>
       </c>
       <c r="L730">
-        <v>0.02605986946107278</v>
+        <v>0.02605986946107275</v>
       </c>
       <c r="M730">
         <v>0</v>
@@ -32572,10 +32572,10 @@
         <v>0.06570569379511217</v>
       </c>
       <c r="L731">
-        <v>0.4714673265900322</v>
+        <v>0.4714673265900321</v>
       </c>
       <c r="M731">
-        <v>0.690162451156491</v>
+        <v>0.6901624511564911</v>
       </c>
       <c r="N731">
         <v>0.5</v>
@@ -32616,10 +32616,10 @@
         <v>-0.1500556669300581</v>
       </c>
       <c r="L732">
-        <v>0.3701123263677288</v>
+        <v>0.370112326367729</v>
       </c>
       <c r="M732">
-        <v>0.5463023739159929</v>
+        <v>0.5463023739159931</v>
       </c>
       <c r="N732">
         <v>0.5</v>
@@ -32660,7 +32660,7 @@
         <v>-0.2737506633876213</v>
       </c>
       <c r="L733">
-        <v>0.0155743191059153</v>
+        <v>0.01557431910591541</v>
       </c>
       <c r="M733">
         <v>0</v>
@@ -32748,10 +32748,10 @@
         <v>-0.3106418967187645</v>
       </c>
       <c r="L735">
-        <v>-0.4262794848339172</v>
+        <v>-0.4262794848339171</v>
       </c>
       <c r="M735">
-        <v>0.4068978235526761</v>
+        <v>0.4068978235526757</v>
       </c>
       <c r="N735">
         <v>0.5</v>
@@ -32792,10 +32792,10 @@
         <v>-0.2270596470173499</v>
       </c>
       <c r="L736">
-        <v>0.02195917934786109</v>
+        <v>0.02195917934786108</v>
       </c>
       <c r="M736">
-        <v>0.01400517256709238</v>
+        <v>0.01400517256709212</v>
       </c>
       <c r="N736">
         <v>0.5</v>
@@ -32839,7 +32839,7 @@
         <v>-0.2519811985173692</v>
       </c>
       <c r="M737">
-        <v>0.05406456743644001</v>
+        <v>0.05406456743643996</v>
       </c>
       <c r="N737">
         <v>0.5</v>
@@ -32880,7 +32880,7 @@
         <v>-0.263004421361976</v>
       </c>
       <c r="L738">
-        <v>-0.2214289571736535</v>
+        <v>-0.2214289571736536</v>
       </c>
       <c r="M738">
         <v>0</v>
@@ -32924,10 +32924,10 @@
         <v>-0.2815574096682651</v>
       </c>
       <c r="L739">
-        <v>0.1398808527683393</v>
+        <v>0.1398808527683394</v>
       </c>
       <c r="M739">
-        <v>0.2726660238734958</v>
+        <v>0.2726660238734959</v>
       </c>
       <c r="N739">
         <v>0.5</v>
@@ -32968,7 +32968,7 @@
         <v>-0.2641810892813393</v>
       </c>
       <c r="L740">
-        <v>-0.06513597472335092</v>
+        <v>-0.06513597472335113</v>
       </c>
       <c r="M740">
         <v>0</v>
@@ -33012,10 +33012,10 @@
         <v>-0.2556856047724521</v>
       </c>
       <c r="L741">
-        <v>-0.06823649332346961</v>
+        <v>-0.0682364933234694</v>
       </c>
       <c r="M741">
-        <v>0.008585281233959997</v>
+        <v>0.008585281233958851</v>
       </c>
       <c r="N741">
         <v>0.5</v>
@@ -33056,10 +33056,10 @@
         <v>-0.1651252150024405</v>
       </c>
       <c r="L742">
-        <v>0.03198781029786155</v>
+        <v>0.03198781029786175</v>
       </c>
       <c r="M742">
-        <v>0.1320404544182685</v>
+        <v>0.1320404544182692</v>
       </c>
       <c r="N742">
         <v>0.5</v>
@@ -33100,10 +33100,10 @@
         <v>-0.180387230774411</v>
       </c>
       <c r="L743">
-        <v>-0.1049223653597036</v>
+        <v>-0.1049223653597037</v>
       </c>
       <c r="M743">
-        <v>0.1101678128569218</v>
+        <v>0.1101678128569214</v>
       </c>
       <c r="N743">
         <v>0.5</v>
@@ -33144,7 +33144,7 @@
         <v>-0.06262828192737802</v>
       </c>
       <c r="L744">
-        <v>0.1703141449803952</v>
+        <v>0.1703141449803949</v>
       </c>
       <c r="M744">
         <v>1</v>
@@ -33188,7 +33188,7 @@
         <v>0.1001498515389994</v>
       </c>
       <c r="L745">
-        <v>0.9290789881033606</v>
+        <v>0.9290789881033591</v>
       </c>
       <c r="M745">
         <v>1</v>
@@ -33232,7 +33232,7 @@
         <v>0.4628185648670471</v>
       </c>
       <c r="L746">
-        <v>2.004663941578555</v>
+        <v>2.004663941578556</v>
       </c>
       <c r="M746">
         <v>1</v>
@@ -33279,7 +33279,7 @@
         <v>1.684685957949543</v>
       </c>
       <c r="M747">
-        <v>0.8377949737642552</v>
+        <v>0.837794973764255</v>
       </c>
       <c r="N747">
         <v>0.5</v>
@@ -33320,10 +33320,10 @@
         <v>0.2838503792183135</v>
       </c>
       <c r="L748">
-        <v>0.7134494962438243</v>
+        <v>0.7134494962438241</v>
       </c>
       <c r="M748">
-        <v>0.3454503631589776</v>
+        <v>0.3454503631589774</v>
       </c>
       <c r="N748">
         <v>0.5</v>
@@ -33364,10 +33364,10 @@
         <v>0.2428529499777889</v>
       </c>
       <c r="L749">
-        <v>0.8073603842126786</v>
+        <v>0.8073603842126791</v>
       </c>
       <c r="M749">
-        <v>0.3930561948916735</v>
+        <v>0.3930561948916736</v>
       </c>
       <c r="N749">
         <v>0.5</v>
@@ -33408,10 +33408,10 @@
         <v>-0.1061098248644481</v>
       </c>
       <c r="L750">
-        <v>0.09596093189157431</v>
+        <v>0.09596093189157437</v>
       </c>
       <c r="M750">
-        <v>0.03242961202768767</v>
+        <v>0.03242961202768758</v>
       </c>
       <c r="N750">
         <v>0.5</v>
@@ -33452,7 +33452,7 @@
         <v>-0.1448279933650547</v>
       </c>
       <c r="L751">
-        <v>-0.20995392783413</v>
+        <v>-0.2099539278341302</v>
       </c>
       <c r="M751">
         <v>1</v>
@@ -33496,7 +33496,7 @@
         <v>-0.4229801955360175</v>
       </c>
       <c r="L752">
-        <v>-0.934328939452891</v>
+        <v>-0.9343289394528907</v>
       </c>
       <c r="M752">
         <v>1</v>
@@ -33584,10 +33584,10 @@
         <v>-0.3744653390671984</v>
       </c>
       <c r="L754">
-        <v>-0.908431133223305</v>
+        <v>-0.9084311332233048</v>
       </c>
       <c r="M754">
-        <v>0.8519042817135688</v>
+        <v>0.8519042817135685</v>
       </c>
       <c r="N754">
         <v>0.5</v>
@@ -33631,7 +33631,7 @@
         <v>-0.921493268574059</v>
       </c>
       <c r="M755">
-        <v>0.8678356377374628</v>
+        <v>0.8678356377374626</v>
       </c>
       <c r="N755">
         <v>0.5</v>
@@ -33760,10 +33760,10 @@
         <v>-0.375158704905951</v>
       </c>
       <c r="L758">
-        <v>-1.075042250399226</v>
+        <v>-1.075042250399227</v>
       </c>
       <c r="M758">
-        <v>0.9008117136763711</v>
+        <v>0.9008117136763714</v>
       </c>
       <c r="N758">
         <v>0.5</v>
@@ -33804,10 +33804,10 @@
         <v>-0.3160412410633344</v>
       </c>
       <c r="L759">
-        <v>-0.8763815474729835</v>
+        <v>-0.876381547472984</v>
       </c>
       <c r="M759">
-        <v>0.6939474160373573</v>
+        <v>0.6939474160373578</v>
       </c>
       <c r="N759">
         <v>0.5</v>
@@ -33842,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="J760">
-        <v>-9.278395957555058e-05</v>
+        <v>-9.278395957555058E-05</v>
       </c>
       <c r="K760">
         <v>-0.3914094049391452</v>
@@ -33851,7 +33851,7 @@
         <v>-1.110431902539916</v>
       </c>
       <c r="M760">
-        <v>0.9376627638636382</v>
+        <v>0.9376627638636381</v>
       </c>
       <c r="N760">
         <v>0.5</v>
@@ -33892,7 +33892,7 @@
         <v>-0.3991516267640591</v>
       </c>
       <c r="L761">
-        <v>-1.17608236970195</v>
+        <v>-1.176082369701951</v>
       </c>
       <c r="M761">
         <v>1</v>
@@ -33983,7 +33983,7 @@
         <v>-1.276368382163274</v>
       </c>
       <c r="M763">
-        <v>0.7306779352532159</v>
+        <v>0.7306779352532158</v>
       </c>
       <c r="N763">
         <v>0.5</v>
@@ -34156,7 +34156,7 @@
         <v>-0.6377059520326473</v>
       </c>
       <c r="L767">
-        <v>-3.440409994764428</v>
+        <v>-3.440409994764429</v>
       </c>
       <c r="M767">
         <v>1</v>
@@ -34203,7 +34203,7 @@
         <v>-2.51272320696878</v>
       </c>
       <c r="M768">
-        <v>0.6381916944893392</v>
+        <v>0.638191694489339</v>
       </c>
       <c r="N768">
         <v>0.5</v>
@@ -34291,7 +34291,7 @@
         <v>-3.556935983024796</v>
       </c>
       <c r="M770">
-        <v>0.8560850387021802</v>
+        <v>0.8560850387021804</v>
       </c>
       <c r="N770">
         <v>0.5</v>
@@ -34376,7 +34376,7 @@
         <v>0.470800713262885</v>
       </c>
       <c r="L772">
-        <v>-0.916355246449176</v>
+        <v>-0.9163552464491755</v>
       </c>
       <c r="M772">
         <v>0</v>
@@ -34420,7 +34420,7 @@
         <v>0.5321450173999875</v>
       </c>
       <c r="L773">
-        <v>1.065591742576614</v>
+        <v>1.065591742576615</v>
       </c>
       <c r="M773">
         <v>1</v>
@@ -34464,7 +34464,7 @@
         <v>-0.03637271036369188</v>
       </c>
       <c r="L774">
-        <v>-0.8536217821958845</v>
+        <v>-0.8536217821958841</v>
       </c>
       <c r="M774">
         <v>0</v>
@@ -34508,7 +34508,7 @@
         <v>-0.05320954121731986</v>
       </c>
       <c r="L775">
-        <v>-0.7759551345838568</v>
+        <v>-0.7759551345838569</v>
       </c>
       <c r="M775">
         <v>0</v>
@@ -34640,10 +34640,10 @@
         <v>-0.08354076122718793</v>
       </c>
       <c r="L778">
-        <v>-0.586080992961623</v>
+        <v>-0.5860809929616227</v>
       </c>
       <c r="M778">
-        <v>0.09350817142485675</v>
+        <v>0.09350817142485669</v>
       </c>
       <c r="N778">
         <v>0.5</v>
@@ -34684,10 +34684,10 @@
         <v>-0.1302406127040859</v>
       </c>
       <c r="L779">
-        <v>-0.7919158009091049</v>
+        <v>-0.7919158009091044</v>
       </c>
       <c r="M779">
-        <v>0.1668104272065633</v>
+        <v>0.1668104272065631</v>
       </c>
       <c r="N779">
         <v>0.5</v>
@@ -34728,10 +34728,10 @@
         <v>-0.06522625181187111</v>
       </c>
       <c r="L780">
-        <v>-0.8339183696027964</v>
+        <v>-0.8339183696027955</v>
       </c>
       <c r="M780">
-        <v>0.2619752855690822</v>
+        <v>0.2619752855690818</v>
       </c>
       <c r="N780">
         <v>0.5</v>
@@ -34816,10 +34816,10 @@
         <v>-0.06413820860890034</v>
       </c>
       <c r="L782">
-        <v>-0.7149776324228833</v>
+        <v>-0.7149776324228825</v>
       </c>
       <c r="M782">
-        <v>0.6774338722057448</v>
+        <v>0.6774338722057438</v>
       </c>
       <c r="N782">
         <v>0.5</v>
@@ -34904,7 +34904,7 @@
         <v>0.09017248376523726</v>
       </c>
       <c r="L784">
-        <v>0.01261802279889429</v>
+        <v>0.01261802279889416</v>
       </c>
       <c r="M784">
         <v>1</v>
@@ -34948,7 +34948,7 @@
         <v>0.05982242867102901</v>
       </c>
       <c r="L785">
-        <v>0.1818273549967897</v>
+        <v>0.1818273549967894</v>
       </c>
       <c r="M785">
         <v>1</v>
@@ -34992,7 +34992,7 @@
         <v>0.06698251672477369</v>
       </c>
       <c r="L786">
-        <v>0.3957278536334041</v>
+        <v>0.3957278536334038</v>
       </c>
       <c r="M786">
         <v>1</v>
@@ -35036,10 +35036,10 @@
         <v>0.03657566570197191</v>
       </c>
       <c r="L787">
-        <v>0.3573264475729286</v>
+        <v>0.357326447572929</v>
       </c>
       <c r="M787">
-        <v>0.8997639763593965</v>
+        <v>0.8997639763593983</v>
       </c>
       <c r="N787">
         <v>0.5</v>
@@ -35080,10 +35080,10 @@
         <v>-0.08012128556799229</v>
       </c>
       <c r="L788">
-        <v>0.3951922913969624</v>
+        <v>0.3951922913969622</v>
       </c>
       <c r="M788">
-        <v>0.9986020660569448</v>
+        <v>0.9986020660569451</v>
       </c>
       <c r="N788">
         <v>0.5</v>
@@ -35124,7 +35124,7 @@
         <v>-0.2057006315293866</v>
       </c>
       <c r="L789">
-        <v>0.003116033185930707</v>
+        <v>0.003116033185930743</v>
       </c>
       <c r="M789">
         <v>0</v>
@@ -35168,10 +35168,10 @@
         <v>-0.1406611983414975</v>
       </c>
       <c r="L790">
-        <v>0.2745506980383168</v>
+        <v>0.2745506980383169</v>
       </c>
       <c r="M790">
-        <v>0.6913563237678949</v>
+        <v>0.6913563237678958</v>
       </c>
       <c r="N790">
         <v>0.5</v>
@@ -35212,10 +35212,10 @@
         <v>-0.1598848243559465</v>
       </c>
       <c r="L791">
-        <v>0.2384864482475633</v>
+        <v>0.2384864482475635</v>
       </c>
       <c r="M791">
-        <v>0.5994990542907567</v>
+        <v>0.5994990542907574</v>
       </c>
       <c r="N791">
         <v>0.5</v>
@@ -35256,10 +35256,10 @@
         <v>-0.1540365790900977</v>
       </c>
       <c r="L792">
-        <v>0.2899492479647292</v>
+        <v>0.2899492479647291</v>
       </c>
       <c r="M792">
-        <v>0.7305771243766542</v>
+        <v>0.7305771243766548</v>
       </c>
       <c r="N792">
         <v>0.5</v>
@@ -35300,7 +35300,7 @@
         <v>-0.2209088136282798</v>
       </c>
       <c r="L793">
-        <v>-0.3573686187303808</v>
+        <v>-0.3573686187303804</v>
       </c>
       <c r="M793">
         <v>1</v>
@@ -35344,7 +35344,7 @@
         <v>0.34205293768526</v>
       </c>
       <c r="L794">
-        <v>0.488876150135613</v>
+        <v>0.4888761501356131</v>
       </c>
       <c r="M794">
         <v>1</v>
@@ -35432,10 +35432,10 @@
         <v>0.3075481916597269</v>
       </c>
       <c r="L796">
-        <v>0.8037730463679386</v>
+        <v>0.8037730463679388</v>
       </c>
       <c r="M796">
-        <v>0.9605310974363528</v>
+        <v>0.960531097436353</v>
       </c>
       <c r="N796">
         <v>0.5</v>
@@ -35476,7 +35476,7 @@
         <v>0.3086214029722469</v>
       </c>
       <c r="L797">
-        <v>0.8741405144859442</v>
+        <v>0.8741405144859443</v>
       </c>
       <c r="M797">
         <v>1</v>
@@ -35608,7 +35608,7 @@
         <v>0.7092362133024842</v>
       </c>
       <c r="L800">
-        <v>2.457332680101404</v>
+        <v>2.457332680101403</v>
       </c>
       <c r="M800">
         <v>1</v>
@@ -35652,7 +35652,7 @@
         <v>0.66222027642799</v>
       </c>
       <c r="L801">
-        <v>2.838548393887999</v>
+        <v>2.838548393888</v>
       </c>
       <c r="M801">
         <v>1</v>
@@ -35699,7 +35699,7 @@
         <v>2.598647513079252</v>
       </c>
       <c r="M802">
-        <v>0.8979002788807561</v>
+        <v>0.8979002788807557</v>
       </c>
       <c r="N802">
         <v>0.5</v>
@@ -35784,10 +35784,10 @@
         <v>0.3351755234797916</v>
       </c>
       <c r="L804">
-        <v>1.947301026817598</v>
+        <v>1.947301026817597</v>
       </c>
       <c r="M804">
-        <v>0.5619922522864088</v>
+        <v>0.5619922522864085</v>
       </c>
       <c r="N804">
         <v>0.5</v>
@@ -35872,10 +35872,10 @@
         <v>-0.3620626493667136</v>
       </c>
       <c r="L806">
-        <v>0.8599747182857296</v>
+        <v>0.8599747182857298</v>
       </c>
       <c r="M806">
-        <v>0.0678267169218911</v>
+        <v>0.06782671692189117</v>
       </c>
       <c r="N806">
         <v>0.5</v>
@@ -35963,7 +35963,7 @@
         <v>1.450473948571074</v>
       </c>
       <c r="M808">
-        <v>0.3460309672552186</v>
+        <v>0.3460309672552183</v>
       </c>
       <c r="N808">
         <v>0.5</v>
@@ -36004,10 +36004,10 @@
         <v>-0.06227546243057634</v>
       </c>
       <c r="L809">
-        <v>1.594307912507966</v>
+        <v>1.594307912507967</v>
       </c>
       <c r="M809">
-        <v>0.413796034603736</v>
+        <v>0.4137960346037362</v>
       </c>
       <c r="N809">
         <v>0.5</v>
@@ -36048,10 +36048,10 @@
         <v>-0.1147259935851135</v>
       </c>
       <c r="L810">
-        <v>1.346531392921712</v>
+        <v>1.346531392921711</v>
       </c>
       <c r="M810">
-        <v>0.2970600977111762</v>
+        <v>0.297060097711176</v>
       </c>
       <c r="N810">
         <v>0.5</v>
@@ -36092,7 +36092,7 @@
         <v>-0.2604280321284512</v>
       </c>
       <c r="L811">
-        <v>0.5724244507972924</v>
+        <v>0.5724244507972926</v>
       </c>
       <c r="M811">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>-0.2698738071562458</v>
       </c>
       <c r="L812">
-        <v>0.3532583358826566</v>
+        <v>0.3532583358826568</v>
       </c>
       <c r="M812">
         <v>0</v>
@@ -36180,7 +36180,7 @@
         <v>-0.4077262908857311</v>
       </c>
       <c r="L813">
-        <v>-0.3268051574073134</v>
+        <v>-0.3268051574073135</v>
       </c>
       <c r="M813">
         <v>1</v>
@@ -36268,7 +36268,7 @@
         <v>-0.5285965419819505</v>
       </c>
       <c r="L815">
-        <v>-1.092491271546557</v>
+        <v>-1.092491271546558</v>
       </c>
       <c r="M815">
         <v>1</v>
@@ -36312,10 +36312,10 @@
         <v>-0.3497751681299949</v>
       </c>
       <c r="L816">
-        <v>-0.6284071744045431</v>
+        <v>-0.6284071744045429</v>
       </c>
       <c r="M816">
-        <v>0.3938977231372148</v>
+        <v>0.3938977231372142</v>
       </c>
       <c r="N816">
         <v>0.5</v>
@@ -36356,10 +36356,10 @@
         <v>-0.4330911976523731</v>
       </c>
       <c r="L817">
-        <v>-1.019128682469208</v>
+        <v>-1.019128682469209</v>
       </c>
       <c r="M817">
-        <v>0.9041871235188579</v>
+        <v>0.9041871235188588</v>
       </c>
       <c r="N817">
         <v>0.5</v>
@@ -36400,7 +36400,7 @@
         <v>-0.4496985318199039</v>
       </c>
       <c r="L818">
-        <v>-1.199353907888803</v>
+        <v>-1.199353907888802</v>
       </c>
       <c r="M818">
         <v>1</v>
